--- a/Paolo/Scripts/Factores/Info_2024.xlsx
+++ b/Paolo/Scripts/Factores/Info_2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14112" yWindow="276" windowWidth="14568" windowHeight="14892" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="14112" yWindow="276" windowWidth="14568" windowHeight="14892" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -5517,9 +5517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T396"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="B373" sqref="B75:B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26965,7 +26965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G557"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>

--- a/Paolo/Scripts/Factores/Info_2024.xlsx
+++ b/Paolo/Scripts/Factores/Info_2024.xlsx
@@ -15,14 +15,17 @@
     <sheet name="Sheet 1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Nuevas" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="Consolidado" sheetId="4" r:id="rId3"/>
-    <sheet name="Graduación" sheetId="5" r:id="rId4"/>
-    <sheet name="Leyenda" sheetId="6" r:id="rId5"/>
-    <sheet name="Base" sheetId="2" state="hidden" r:id="rId6"/>
+    <sheet name="Total" sheetId="9" r:id="rId4"/>
+    <sheet name="Revision" sheetId="8" r:id="rId5"/>
+    <sheet name="Eliminados" sheetId="7" r:id="rId6"/>
+    <sheet name="Graduación" sheetId="5" r:id="rId7"/>
+    <sheet name="Leyenda" sheetId="6" r:id="rId8"/>
+    <sheet name="Base" sheetId="2" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Base!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Base!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Consolidado!$A$1:$T$396</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Graduación!$A$1:$G$557</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Graduación!$A$1:$G$557</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Nuevas!$A$1:$D$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$C$98</definedName>
   </definedNames>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3702" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3896" uniqueCount="793">
   <si>
     <t>Correlativo</t>
   </si>
@@ -2614,7 +2617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2690,6 +2693,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5519,7 +5531,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B373" sqref="B75:B373"/>
+      <selection pane="bottomLeft" activeCell="B381" sqref="B381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26895,7 +26907,7 @@
     </row>
     <row r="396" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A396" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B396" s="9" t="s">
         <v>333</v>
@@ -26962,6 +26974,1140 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A97" sqref="A1:A97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="5">
+        <f>COUNTA(A1:A97)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="31"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="31"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="31"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="31"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="31"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="31"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="31"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="31"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="31"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="31"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" s="31"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="31"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="31"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" s="31"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B19" s="31"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="31"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B21" s="31"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="31"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="31"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="31"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" s="31"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26" s="31"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B27" s="31"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="31"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="32"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B30" s="31"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" s="31"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B32" s="31"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="32"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" s="31"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="32"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="31"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B37" s="31"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B38" s="31"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B39" s="31"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B40" s="31"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" s="31"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B42" s="31"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B43" s="31"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="32"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B45" s="31"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B46" s="31"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="32"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48" s="31"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B49" s="31"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="31"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B51" s="31"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" s="31"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B53" s="31"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B54" s="31"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="32"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" s="31"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B57" s="31"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B58" s="31"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B59" s="31"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B60" s="31"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B61" s="31"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="32"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B63" s="31"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="32"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="31"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B66" s="31"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B67" s="31"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B68" s="31"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B69" s="31"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" s="31"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B71" s="31"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="32"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B73" s="31"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B74" s="31"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B75" s="31"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B76" s="31"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="32"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="B78" s="33"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B79" s="31"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B80" s="31"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B81" s="31"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B82" s="31"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B83" s="31"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B84" s="31"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B85" s="31"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B86" s="31"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B87" s="31"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B88" s="31"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B89" s="31"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="32"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="31"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="32"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B93" s="31"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B94" s="31"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="32"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="31"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B97" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A58" sqref="A1:A58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="5">
+        <f>COUNTA(A1:A58)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="5">
+        <f>COUNTA(A1:A39)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G557"/>
   <sheetViews>
@@ -37443,7 +38589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C4"/>
   <sheetViews>
@@ -37470,7 +38616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C185"/>
   <sheetViews>

--- a/Paolo/Scripts/Factores/Info_2024.xlsx
+++ b/Paolo/Scripts/Factores/Info_2024.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14112" yWindow="276" windowWidth="14568" windowHeight="14892" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="14112" yWindow="276" windowWidth="14568" windowHeight="14892" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Nuevas" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="Consolidado" sheetId="4" r:id="rId3"/>
-    <sheet name="Total" sheetId="9" r:id="rId4"/>
-    <sheet name="Revision" sheetId="8" r:id="rId5"/>
-    <sheet name="Eliminados" sheetId="7" r:id="rId6"/>
+    <sheet name="Total" sheetId="9" state="hidden" r:id="rId4"/>
+    <sheet name="Revision" sheetId="8" state="hidden" r:id="rId5"/>
+    <sheet name="Eliminados" sheetId="7" state="hidden" r:id="rId6"/>
     <sheet name="Graduación" sheetId="5" r:id="rId7"/>
     <sheet name="Leyenda" sheetId="6" r:id="rId8"/>
     <sheet name="Base" sheetId="2" state="hidden" r:id="rId9"/>
@@ -5529,7 +5529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T396"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B381" sqref="B381"/>
     </sheetView>
@@ -28111,9 +28111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G557"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36648,7 +36648,9 @@
       </c>
       <c r="D453" s="6"/>
       <c r="E453" s="3"/>
-      <c r="F453" s="13"/>
+      <c r="F453" s="13">
+        <v>1</v>
+      </c>
       <c r="G453" s="3"/>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.3">

--- a/Paolo/Scripts/Factores/Info_2024.xlsx
+++ b/Paolo/Scripts/Factores/Info_2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14112" yWindow="276" windowWidth="14568" windowHeight="14892" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="14112" yWindow="276" windowWidth="14568" windowHeight="14892" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -5529,9 +5529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T396"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B381" sqref="B381"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28109,9 +28109,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G557"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -28149,7 +28150,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -28170,7 +28171,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -28191,7 +28192,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -28212,7 +28213,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -28233,7 +28234,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -28254,7 +28255,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -28275,7 +28276,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -28296,7 +28297,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -28464,7 +28465,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>3</v>
       </c>
@@ -28481,7 +28482,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>3</v>
       </c>
@@ -28498,7 +28499,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>3</v>
       </c>
@@ -28519,7 +28520,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3</v>
       </c>
@@ -28540,7 +28541,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>3</v>
       </c>
@@ -28561,7 +28562,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>3</v>
       </c>
@@ -28582,7 +28583,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>3</v>
       </c>
@@ -28603,7 +28604,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>3</v>
       </c>
@@ -28624,7 +28625,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>3</v>
       </c>
@@ -28645,7 +28646,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>3</v>
       </c>
@@ -28662,7 +28663,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>4</v>
       </c>
@@ -28679,7 +28680,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>4</v>
       </c>
@@ -28696,7 +28697,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>4</v>
       </c>
@@ -28713,7 +28714,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>4</v>
       </c>
@@ -28730,7 +28731,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>4</v>
       </c>
@@ -28747,7 +28748,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>4</v>
       </c>
@@ -28764,7 +28765,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>4</v>
       </c>
@@ -28781,7 +28782,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>4</v>
       </c>
@@ -28798,7 +28799,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>4</v>
       </c>
@@ -28815,7 +28816,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>4</v>
       </c>
@@ -28832,7 +28833,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>4</v>
       </c>
@@ -28849,7 +28850,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>4</v>
       </c>
@@ -28866,7 +28867,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>4</v>
       </c>
@@ -28883,7 +28884,7 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>4</v>
       </c>
@@ -28900,7 +28901,7 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>4</v>
       </c>
@@ -28917,7 +28918,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>4</v>
       </c>
@@ -28934,7 +28935,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>5</v>
       </c>
@@ -28955,7 +28956,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>5</v>
       </c>
@@ -28976,7 +28977,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>5</v>
       </c>
@@ -28997,7 +28998,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>5</v>
       </c>
@@ -29018,7 +29019,7 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>5</v>
       </c>
@@ -29039,7 +29040,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>5</v>
       </c>
@@ -29060,7 +29061,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>5</v>
       </c>
@@ -29081,7 +29082,7 @@
       </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>5</v>
       </c>
@@ -29102,7 +29103,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>5</v>
       </c>
@@ -29123,7 +29124,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>5</v>
       </c>
@@ -29144,7 +29145,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>5</v>
       </c>
@@ -29165,7 +29166,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>5</v>
       </c>
@@ -29186,7 +29187,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>5</v>
       </c>
@@ -29207,7 +29208,7 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>5</v>
       </c>
@@ -29228,7 +29229,7 @@
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>5</v>
       </c>
@@ -29249,7 +29250,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>5</v>
       </c>
@@ -29270,7 +29271,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>5</v>
       </c>
@@ -29291,7 +29292,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>5</v>
       </c>
@@ -29312,7 +29313,7 @@
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>5</v>
       </c>
@@ -29333,7 +29334,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>5</v>
       </c>
@@ -29354,7 +29355,7 @@
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>5</v>
       </c>
@@ -29375,7 +29376,7 @@
       </c>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>5</v>
       </c>
@@ -29396,7 +29397,7 @@
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>5</v>
       </c>
@@ -29417,7 +29418,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>5</v>
       </c>
@@ -29434,7 +29435,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>5</v>
       </c>
@@ -29451,7 +29452,7 @@
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>5</v>
       </c>
@@ -29472,7 +29473,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>5</v>
       </c>
@@ -29493,7 +29494,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>5</v>
       </c>
@@ -29514,7 +29515,7 @@
       </c>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>5</v>
       </c>
@@ -29535,7 +29536,7 @@
       </c>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>5</v>
       </c>
@@ -29556,7 +29557,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>5</v>
       </c>
@@ -29577,7 +29578,7 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>5</v>
       </c>
@@ -29598,7 +29599,7 @@
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>5</v>
       </c>
@@ -29619,7 +29620,7 @@
       </c>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>5</v>
       </c>
@@ -29640,7 +29641,7 @@
       </c>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>5</v>
       </c>
@@ -29661,7 +29662,7 @@
       </c>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>5</v>
       </c>
@@ -29682,7 +29683,7 @@
       </c>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>5</v>
       </c>
@@ -29703,7 +29704,7 @@
       </c>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>5</v>
       </c>
@@ -29724,7 +29725,7 @@
       </c>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>5</v>
       </c>
@@ -29745,7 +29746,7 @@
       </c>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>5</v>
       </c>
@@ -29762,7 +29763,7 @@
       </c>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>5</v>
       </c>
@@ -29779,7 +29780,7 @@
       </c>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>6</v>
       </c>
@@ -29796,7 +29797,7 @@
       </c>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>6</v>
       </c>
@@ -29813,7 +29814,7 @@
       </c>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>6</v>
       </c>
@@ -29830,7 +29831,7 @@
       </c>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>7</v>
       </c>
@@ -29847,7 +29848,7 @@
       </c>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>7</v>
       </c>
@@ -29864,7 +29865,7 @@
       </c>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>7</v>
       </c>
@@ -29881,7 +29882,7 @@
       </c>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>7</v>
       </c>
@@ -29898,7 +29899,7 @@
       </c>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>7</v>
       </c>
@@ -29915,7 +29916,7 @@
       </c>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>7</v>
       </c>
@@ -29932,7 +29933,7 @@
       </c>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>7</v>
       </c>
@@ -29949,7 +29950,7 @@
       </c>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>7</v>
       </c>
@@ -29966,7 +29967,7 @@
       </c>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>7</v>
       </c>
@@ -29983,7 +29984,7 @@
       </c>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>8</v>
       </c>
@@ -30000,7 +30001,7 @@
       </c>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>9</v>
       </c>
@@ -30017,7 +30018,7 @@
       </c>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <v>9</v>
       </c>
@@ -30038,7 +30039,7 @@
       </c>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
         <v>9</v>
       </c>
@@ -30055,7 +30056,7 @@
       </c>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9">
         <v>10</v>
       </c>
@@ -30076,7 +30077,7 @@
       </c>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>10</v>
       </c>
@@ -30097,7 +30098,7 @@
       </c>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9">
         <v>10</v>
       </c>
@@ -30118,7 +30119,7 @@
       </c>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>10</v>
       </c>
@@ -30139,7 +30140,7 @@
       </c>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
         <v>10</v>
       </c>
@@ -30160,7 +30161,7 @@
       </c>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
         <v>10</v>
       </c>
@@ -30181,7 +30182,7 @@
       </c>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9">
         <v>10</v>
       </c>
@@ -30198,7 +30199,7 @@
       </c>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
         <v>10</v>
       </c>
@@ -30215,7 +30216,7 @@
       </c>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9">
         <v>10</v>
       </c>
@@ -30232,7 +30233,7 @@
       </c>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9">
         <v>10</v>
       </c>
@@ -30249,7 +30250,7 @@
       </c>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
         <v>10</v>
       </c>
@@ -30266,7 +30267,7 @@
       </c>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9">
         <v>10</v>
       </c>
@@ -30287,7 +30288,7 @@
       </c>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9">
         <v>10</v>
       </c>
@@ -30308,7 +30309,7 @@
       </c>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9">
         <v>10</v>
       </c>
@@ -30329,7 +30330,7 @@
       </c>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9">
         <v>10</v>
       </c>
@@ -30350,7 +30351,7 @@
       </c>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9">
         <v>10</v>
       </c>
@@ -30371,7 +30372,7 @@
       </c>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9">
         <v>10</v>
       </c>
@@ -30392,7 +30393,7 @@
       </c>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9">
         <v>11</v>
       </c>
@@ -30409,7 +30410,7 @@
       </c>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
         <v>11</v>
       </c>
@@ -30426,7 +30427,7 @@
       </c>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
         <v>11</v>
       </c>
@@ -30447,7 +30448,7 @@
       </c>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9">
         <v>11</v>
       </c>
@@ -30468,7 +30469,7 @@
       </c>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9">
         <v>11</v>
       </c>
@@ -30489,7 +30490,7 @@
       </c>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9">
         <v>11</v>
       </c>
@@ -30510,7 +30511,7 @@
       </c>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9">
         <v>11</v>
       </c>
@@ -30531,7 +30532,7 @@
       </c>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9">
         <v>11</v>
       </c>
@@ -30552,7 +30553,7 @@
       </c>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9">
         <v>12</v>
       </c>
@@ -30567,7 +30568,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9">
         <v>13</v>
       </c>
@@ -30584,7 +30585,7 @@
       </c>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
         <v>13</v>
       </c>
@@ -30601,7 +30602,7 @@
       </c>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
         <v>13</v>
       </c>
@@ -30618,7 +30619,7 @@
       </c>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
         <v>13</v>
       </c>
@@ -30635,7 +30636,7 @@
       </c>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
         <v>14</v>
       </c>
@@ -30652,7 +30653,7 @@
       </c>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
         <v>14</v>
       </c>
@@ -30669,7 +30670,7 @@
       </c>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9">
         <v>14</v>
       </c>
@@ -30686,7 +30687,7 @@
       </c>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9">
         <v>14</v>
       </c>
@@ -30703,7 +30704,7 @@
       </c>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9">
         <v>14</v>
       </c>
@@ -30720,7 +30721,7 @@
       </c>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9">
         <v>14</v>
       </c>
@@ -30737,7 +30738,7 @@
       </c>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9">
         <v>14</v>
       </c>
@@ -30754,7 +30755,7 @@
       </c>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9">
         <v>14</v>
       </c>
@@ -30771,7 +30772,7 @@
       </c>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9">
         <v>14</v>
       </c>
@@ -30788,7 +30789,7 @@
       </c>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9">
         <v>14</v>
       </c>
@@ -30805,7 +30806,7 @@
       </c>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9">
         <v>14</v>
       </c>
@@ -30822,7 +30823,7 @@
       </c>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9">
         <v>14</v>
       </c>
@@ -30839,7 +30840,7 @@
       </c>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9">
         <v>14</v>
       </c>
@@ -30856,7 +30857,7 @@
       </c>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9">
         <v>14</v>
       </c>
@@ -30873,7 +30874,7 @@
       </c>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9">
         <v>14</v>
       </c>
@@ -30890,7 +30891,7 @@
       </c>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9">
         <v>14</v>
       </c>
@@ -30907,7 +30908,7 @@
       </c>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9">
         <v>14</v>
       </c>
@@ -30924,7 +30925,7 @@
       </c>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9">
         <v>14</v>
       </c>
@@ -30941,7 +30942,7 @@
       </c>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9">
         <v>14</v>
       </c>
@@ -30958,7 +30959,7 @@
       </c>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9">
         <v>14</v>
       </c>
@@ -30975,7 +30976,7 @@
       </c>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9">
         <v>14</v>
       </c>
@@ -30992,7 +30993,7 @@
       </c>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9">
         <v>14</v>
       </c>
@@ -31009,7 +31010,7 @@
       </c>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9">
         <v>14</v>
       </c>
@@ -31026,7 +31027,7 @@
       </c>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9">
         <v>14</v>
       </c>
@@ -31043,7 +31044,7 @@
       </c>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9">
         <v>14</v>
       </c>
@@ -31060,7 +31061,7 @@
       </c>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9">
         <v>14</v>
       </c>
@@ -31077,7 +31078,7 @@
       </c>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9">
         <v>14</v>
       </c>
@@ -31094,7 +31095,7 @@
       </c>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9">
         <v>14</v>
       </c>
@@ -31111,7 +31112,7 @@
       </c>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9">
         <v>14</v>
       </c>
@@ -31128,7 +31129,7 @@
       </c>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9">
         <v>14</v>
       </c>
@@ -31145,7 +31146,7 @@
       </c>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9">
         <v>14</v>
       </c>
@@ -31162,7 +31163,7 @@
       </c>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9">
         <v>14</v>
       </c>
@@ -31179,7 +31180,7 @@
       </c>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9">
         <v>14</v>
       </c>
@@ -31196,7 +31197,7 @@
       </c>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9">
         <v>14</v>
       </c>
@@ -31213,7 +31214,7 @@
       </c>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9">
         <v>14</v>
       </c>
@@ -31230,7 +31231,7 @@
       </c>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9">
         <v>14</v>
       </c>
@@ -31247,7 +31248,7 @@
       </c>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9">
         <v>14</v>
       </c>
@@ -31264,7 +31265,7 @@
       </c>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9">
         <v>14</v>
       </c>
@@ -31281,7 +31282,7 @@
       </c>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9">
         <v>14</v>
       </c>
@@ -31298,7 +31299,7 @@
       </c>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9">
         <v>14</v>
       </c>
@@ -31315,7 +31316,7 @@
       </c>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9">
         <v>14</v>
       </c>
@@ -31332,7 +31333,7 @@
       </c>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9">
         <v>14</v>
       </c>
@@ -31349,7 +31350,7 @@
       </c>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9">
         <v>14</v>
       </c>
@@ -31366,7 +31367,7 @@
       </c>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
         <v>14</v>
       </c>
@@ -31383,7 +31384,7 @@
       </c>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9">
         <v>14</v>
       </c>
@@ -31400,7 +31401,7 @@
       </c>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9">
         <v>14</v>
       </c>
@@ -31417,7 +31418,7 @@
       </c>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9">
         <v>14</v>
       </c>
@@ -31434,7 +31435,7 @@
       </c>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="9">
         <v>14</v>
       </c>
@@ -31451,7 +31452,7 @@
       </c>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9">
         <v>14</v>
       </c>
@@ -31468,7 +31469,7 @@
       </c>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9">
         <v>14</v>
       </c>
@@ -31485,7 +31486,7 @@
       </c>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="9">
         <v>14</v>
       </c>
@@ -31506,7 +31507,7 @@
       </c>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="9">
         <v>14</v>
       </c>
@@ -31527,7 +31528,7 @@
       </c>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9">
         <v>14</v>
       </c>
@@ -31548,7 +31549,7 @@
       </c>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9">
         <v>14</v>
       </c>
@@ -31569,7 +31570,7 @@
       </c>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9">
         <v>14</v>
       </c>
@@ -31590,7 +31591,7 @@
       </c>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9">
         <v>14</v>
       </c>
@@ -31611,7 +31612,7 @@
       </c>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9">
         <v>14</v>
       </c>
@@ -31628,7 +31629,7 @@
       </c>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9">
         <v>14</v>
       </c>
@@ -31645,7 +31646,7 @@
       </c>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9">
         <v>15</v>
       </c>
@@ -31662,7 +31663,7 @@
       </c>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="9">
         <v>16</v>
       </c>
@@ -31679,7 +31680,7 @@
       </c>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9">
         <v>16</v>
       </c>
@@ -31696,7 +31697,7 @@
       </c>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="9">
         <v>16</v>
       </c>
@@ -31713,7 +31714,7 @@
       </c>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9">
         <v>17</v>
       </c>
@@ -31730,7 +31731,7 @@
       </c>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9">
         <v>17</v>
       </c>
@@ -31747,7 +31748,7 @@
       </c>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="9">
         <v>18</v>
       </c>
@@ -31762,7 +31763,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="9">
         <v>19</v>
       </c>
@@ -31783,7 +31784,7 @@
       </c>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9">
         <v>19</v>
       </c>
@@ -31804,7 +31805,7 @@
       </c>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9">
         <v>19</v>
       </c>
@@ -31825,7 +31826,7 @@
       </c>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="9">
         <v>19</v>
       </c>
@@ -31846,7 +31847,7 @@
       </c>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="9">
         <v>19</v>
       </c>
@@ -31867,7 +31868,7 @@
       </c>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9">
         <v>19</v>
       </c>
@@ -31888,7 +31889,7 @@
       </c>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9">
         <v>19</v>
       </c>
@@ -31909,7 +31910,7 @@
       </c>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9">
         <v>19</v>
       </c>
@@ -31930,7 +31931,7 @@
       </c>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="9">
         <v>19</v>
       </c>
@@ -31951,7 +31952,7 @@
       </c>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9">
         <v>19</v>
       </c>
@@ -31972,7 +31973,7 @@
       </c>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="9">
         <v>19</v>
       </c>
@@ -31993,7 +31994,7 @@
       </c>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9">
         <v>19</v>
       </c>
@@ -32014,7 +32015,7 @@
       </c>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="9">
         <v>19</v>
       </c>
@@ -32035,7 +32036,7 @@
       </c>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9">
         <v>19</v>
       </c>
@@ -32056,7 +32057,7 @@
       </c>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="9">
         <v>19</v>
       </c>
@@ -32077,7 +32078,7 @@
       </c>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9">
         <v>19</v>
       </c>
@@ -32098,7 +32099,7 @@
       </c>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9">
         <v>19</v>
       </c>
@@ -32119,7 +32120,7 @@
       </c>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="9">
         <v>19</v>
       </c>
@@ -32140,7 +32141,7 @@
       </c>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="9">
         <v>19</v>
       </c>
@@ -32161,7 +32162,7 @@
       </c>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="9">
         <v>19</v>
       </c>
@@ -32182,7 +32183,7 @@
       </c>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9">
         <v>19</v>
       </c>
@@ -32203,7 +32204,7 @@
       </c>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="9">
         <v>19</v>
       </c>
@@ -32224,7 +32225,7 @@
       </c>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="9">
         <v>19</v>
       </c>
@@ -32245,7 +32246,7 @@
       </c>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9">
         <v>19</v>
       </c>
@@ -32266,7 +32267,7 @@
       </c>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9">
         <v>19</v>
       </c>
@@ -32287,7 +32288,7 @@
       </c>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9">
         <v>19</v>
       </c>
@@ -32308,7 +32309,7 @@
       </c>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="9">
         <v>19</v>
       </c>
@@ -32329,7 +32330,7 @@
       </c>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="9">
         <v>19</v>
       </c>
@@ -32350,7 +32351,7 @@
       </c>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="9">
         <v>19</v>
       </c>
@@ -32371,7 +32372,7 @@
       </c>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="9">
         <v>19</v>
       </c>
@@ -32392,7 +32393,7 @@
       </c>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="9">
         <v>19</v>
       </c>
@@ -32413,7 +32414,7 @@
       </c>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9">
         <v>19</v>
       </c>
@@ -32434,7 +32435,7 @@
       </c>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9">
         <v>19</v>
       </c>
@@ -32455,7 +32456,7 @@
       </c>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="9">
         <v>19</v>
       </c>
@@ -32476,7 +32477,7 @@
       </c>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="9">
         <v>19</v>
       </c>
@@ -32497,7 +32498,7 @@
       </c>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="9">
         <v>19</v>
       </c>
@@ -32518,7 +32519,7 @@
       </c>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9">
         <v>19</v>
       </c>
@@ -32535,7 +32536,7 @@
       </c>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9">
         <v>20</v>
       </c>
@@ -32550,7 +32551,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="9">
         <v>21</v>
       </c>
@@ -32565,7 +32566,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="9">
         <v>22</v>
       </c>
@@ -32580,7 +32581,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="9">
         <v>23</v>
       </c>
@@ -32595,7 +32596,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="9">
         <v>24</v>
       </c>
@@ -32612,7 +32613,7 @@
       </c>
       <c r="G236" s="3"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="9">
         <v>24</v>
       </c>
@@ -32629,7 +32630,7 @@
       </c>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9">
         <v>24</v>
       </c>
@@ -32646,7 +32647,7 @@
       </c>
       <c r="G238" s="3"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9">
         <v>24</v>
       </c>
@@ -32663,7 +32664,7 @@
       </c>
       <c r="G239" s="3"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="9">
         <v>24</v>
       </c>
@@ -32680,7 +32681,7 @@
       </c>
       <c r="G240" s="3"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="9">
         <v>24</v>
       </c>
@@ -32697,7 +32698,7 @@
       </c>
       <c r="G241" s="3"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="9">
         <v>24</v>
       </c>
@@ -32714,7 +32715,7 @@
       </c>
       <c r="G242" s="3"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="9">
         <v>25</v>
       </c>
@@ -32731,7 +32732,7 @@
       </c>
       <c r="G243" s="3"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="9">
         <v>26</v>
       </c>
@@ -32746,7 +32747,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="9">
         <v>27</v>
       </c>
@@ -32767,7 +32768,7 @@
       </c>
       <c r="G245" s="3"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="9">
         <v>27</v>
       </c>
@@ -32788,7 +32789,7 @@
       </c>
       <c r="G246" s="3"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="9">
         <v>27</v>
       </c>
@@ -32809,7 +32810,7 @@
       </c>
       <c r="G247" s="3"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="9">
         <v>27</v>
       </c>
@@ -32830,7 +32831,7 @@
       </c>
       <c r="G248" s="3"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="9">
         <v>27</v>
       </c>
@@ -32851,7 +32852,7 @@
       </c>
       <c r="G249" s="3"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="9">
         <v>27</v>
       </c>
@@ -32872,7 +32873,7 @@
       </c>
       <c r="G250" s="3"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="9">
         <v>27</v>
       </c>
@@ -32893,7 +32894,7 @@
       </c>
       <c r="G251" s="3"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="9">
         <v>28</v>
       </c>
@@ -32910,7 +32911,7 @@
       </c>
       <c r="G252" s="3"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="9">
         <v>28</v>
       </c>
@@ -32927,7 +32928,7 @@
       </c>
       <c r="G253" s="3"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="9">
         <v>28</v>
       </c>
@@ -32944,7 +32945,7 @@
       </c>
       <c r="G254" s="3"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="9">
         <v>29</v>
       </c>
@@ -32961,7 +32962,7 @@
       </c>
       <c r="G255" s="3"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="9">
         <v>29</v>
       </c>
@@ -32978,7 +32979,7 @@
       </c>
       <c r="G256" s="3"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="9">
         <v>29</v>
       </c>
@@ -32995,7 +32996,7 @@
       </c>
       <c r="G257" s="3"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="9">
         <v>30</v>
       </c>
@@ -33012,7 +33013,7 @@
       </c>
       <c r="G258" s="3"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="9">
         <v>30</v>
       </c>
@@ -33029,7 +33030,7 @@
       </c>
       <c r="G259" s="3"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="9">
         <v>31</v>
       </c>
@@ -33050,7 +33051,7 @@
       </c>
       <c r="G260" s="3"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="9">
         <v>31</v>
       </c>
@@ -33071,7 +33072,7 @@
       </c>
       <c r="G261" s="3"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="9">
         <v>31</v>
       </c>
@@ -33092,7 +33093,7 @@
       </c>
       <c r="G262" s="3"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="9">
         <v>31</v>
       </c>
@@ -33113,7 +33114,7 @@
       </c>
       <c r="G263" s="3"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="9">
         <v>31</v>
       </c>
@@ -33134,7 +33135,7 @@
       </c>
       <c r="G264" s="3"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="9">
         <v>31</v>
       </c>
@@ -33155,7 +33156,7 @@
       </c>
       <c r="G265" s="3"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="9">
         <v>31</v>
       </c>
@@ -33176,7 +33177,7 @@
       </c>
       <c r="G266" s="3"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="9">
         <v>32</v>
       </c>
@@ -33191,7 +33192,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="9">
         <v>33</v>
       </c>
@@ -33206,7 +33207,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="9">
         <v>34</v>
       </c>
@@ -33223,7 +33224,7 @@
       </c>
       <c r="G269" s="3"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="9">
         <v>35</v>
       </c>
@@ -33240,7 +33241,7 @@
       </c>
       <c r="G270" s="3"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="9">
         <v>35</v>
       </c>
@@ -33257,7 +33258,7 @@
       </c>
       <c r="G271" s="3"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="9">
         <v>35</v>
       </c>
@@ -33274,7 +33275,7 @@
       </c>
       <c r="G272" s="3"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="9">
         <v>35</v>
       </c>
@@ -33291,7 +33292,7 @@
       </c>
       <c r="G273" s="3"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="9">
         <v>35</v>
       </c>
@@ -33308,7 +33309,7 @@
       </c>
       <c r="G274" s="3"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="9">
         <v>36</v>
       </c>
@@ -33323,7 +33324,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="9">
         <v>37</v>
       </c>
@@ -33344,7 +33345,7 @@
       </c>
       <c r="G276" s="3"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="9">
         <v>37</v>
       </c>
@@ -33365,7 +33366,7 @@
       </c>
       <c r="G277" s="3"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="9">
         <v>37</v>
       </c>
@@ -33386,7 +33387,7 @@
       </c>
       <c r="G278" s="3"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="9">
         <v>37</v>
       </c>
@@ -33407,7 +33408,7 @@
       </c>
       <c r="G279" s="3"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="9">
         <v>37</v>
       </c>
@@ -33428,7 +33429,7 @@
       </c>
       <c r="G280" s="3"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="9">
         <v>37</v>
       </c>
@@ -33449,7 +33450,7 @@
       </c>
       <c r="G281" s="3"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="9">
         <v>37</v>
       </c>
@@ -33470,7 +33471,7 @@
       </c>
       <c r="G282" s="3"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="9">
         <v>37</v>
       </c>
@@ -33491,7 +33492,7 @@
       </c>
       <c r="G283" s="3"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="9">
         <v>37</v>
       </c>
@@ -33512,7 +33513,7 @@
       </c>
       <c r="G284" s="3"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="9">
         <v>37</v>
       </c>
@@ -33533,7 +33534,7 @@
       </c>
       <c r="G285" s="3"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="9">
         <v>37</v>
       </c>
@@ -33554,7 +33555,7 @@
       </c>
       <c r="G286" s="3"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="9">
         <v>37</v>
       </c>
@@ -33575,7 +33576,7 @@
       </c>
       <c r="G287" s="3"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="9">
         <v>37</v>
       </c>
@@ -33596,7 +33597,7 @@
       </c>
       <c r="G288" s="3"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="9">
         <v>37</v>
       </c>
@@ -33617,7 +33618,7 @@
       </c>
       <c r="G289" s="3"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="9">
         <v>38</v>
       </c>
@@ -33632,7 +33633,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="9">
         <v>39</v>
       </c>
@@ -33647,7 +33648,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="9">
         <v>40</v>
       </c>
@@ -33664,7 +33665,7 @@
       </c>
       <c r="G292" s="3"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="9">
         <v>40</v>
       </c>
@@ -33681,7 +33682,7 @@
       </c>
       <c r="G293" s="3"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="9">
         <v>40</v>
       </c>
@@ -33702,7 +33703,7 @@
       </c>
       <c r="G294" s="3"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="9">
         <v>40</v>
       </c>
@@ -33723,7 +33724,7 @@
       </c>
       <c r="G295" s="3"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="9">
         <v>40</v>
       </c>
@@ -33744,7 +33745,7 @@
       </c>
       <c r="G296" s="3"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="9">
         <v>40</v>
       </c>
@@ -33765,7 +33766,7 @@
       </c>
       <c r="G297" s="3"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="9">
         <v>40</v>
       </c>
@@ -33786,7 +33787,7 @@
       </c>
       <c r="G298" s="3"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="9">
         <v>40</v>
       </c>
@@ -33807,7 +33808,7 @@
       </c>
       <c r="G299" s="3"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="9">
         <v>40</v>
       </c>
@@ -33828,7 +33829,7 @@
       </c>
       <c r="G300" s="3"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="9">
         <v>40</v>
       </c>
@@ -33845,7 +33846,7 @@
       </c>
       <c r="G301" s="3"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="9">
         <v>40</v>
       </c>
@@ -33866,7 +33867,7 @@
       </c>
       <c r="G302" s="3"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="9">
         <v>40</v>
       </c>
@@ -33887,7 +33888,7 @@
       </c>
       <c r="G303" s="3"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="9">
         <v>40</v>
       </c>
@@ -33908,7 +33909,7 @@
       </c>
       <c r="G304" s="3"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="9">
         <v>40</v>
       </c>
@@ -33929,7 +33930,7 @@
       </c>
       <c r="G305" s="3"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="9">
         <v>40</v>
       </c>
@@ -33950,7 +33951,7 @@
       </c>
       <c r="G306" s="3"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="9">
         <v>40</v>
       </c>
@@ -33971,7 +33972,7 @@
       </c>
       <c r="G307" s="3"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="9">
         <v>40</v>
       </c>
@@ -33992,7 +33993,7 @@
       </c>
       <c r="G308" s="3"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="9">
         <v>40</v>
       </c>
@@ -34009,7 +34010,7 @@
       </c>
       <c r="G309" s="3"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="9">
         <v>41</v>
       </c>
@@ -34026,7 +34027,7 @@
       </c>
       <c r="G310" s="3"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="9">
         <v>42</v>
       </c>
@@ -34043,7 +34044,7 @@
       </c>
       <c r="G311" s="3"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="9">
         <v>42</v>
       </c>
@@ -34060,7 +34061,7 @@
       </c>
       <c r="G312" s="3"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="9">
         <v>42</v>
       </c>
@@ -34077,7 +34078,7 @@
       </c>
       <c r="G313" s="3"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="9">
         <v>42</v>
       </c>
@@ -34094,7 +34095,7 @@
       </c>
       <c r="G314" s="3"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="9">
         <v>42</v>
       </c>
@@ -34111,7 +34112,7 @@
       </c>
       <c r="G315" s="3"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="9">
         <v>43</v>
       </c>
@@ -34126,7 +34127,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="9">
         <v>44</v>
       </c>
@@ -34141,7 +34142,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="9">
         <v>45</v>
       </c>
@@ -34162,7 +34163,7 @@
       </c>
       <c r="G318" s="3"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="9">
         <v>45</v>
       </c>
@@ -34183,7 +34184,7 @@
       </c>
       <c r="G319" s="3"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="9">
         <v>45</v>
       </c>
@@ -34204,7 +34205,7 @@
       </c>
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="9">
         <v>45</v>
       </c>
@@ -34225,7 +34226,7 @@
       </c>
       <c r="G321" s="3"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="9">
         <v>45</v>
       </c>
@@ -34246,7 +34247,7 @@
       </c>
       <c r="G322" s="3"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="9">
         <v>45</v>
       </c>
@@ -34267,7 +34268,7 @@
       </c>
       <c r="G323" s="3"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="9">
         <v>46</v>
       </c>
@@ -34284,7 +34285,7 @@
       </c>
       <c r="G324" s="3"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="9">
         <v>47</v>
       </c>
@@ -34301,7 +34302,7 @@
       </c>
       <c r="G325" s="3"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="9">
         <v>48</v>
       </c>
@@ -34318,7 +34319,7 @@
       </c>
       <c r="G326" s="3"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="9">
         <v>49</v>
       </c>
@@ -34335,7 +34336,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="9">
         <v>50</v>
       </c>
@@ -34352,7 +34353,7 @@
       </c>
       <c r="G328" s="3"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="9">
         <v>50</v>
       </c>
@@ -34369,7 +34370,7 @@
       </c>
       <c r="G329" s="3"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="9">
         <v>50</v>
       </c>
@@ -34386,7 +34387,7 @@
       </c>
       <c r="G330" s="3"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="9">
         <v>50</v>
       </c>
@@ -34403,7 +34404,7 @@
       </c>
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="9">
         <v>50</v>
       </c>
@@ -34420,7 +34421,7 @@
       </c>
       <c r="G332" s="3"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="9">
         <v>50</v>
       </c>
@@ -34437,7 +34438,7 @@
       </c>
       <c r="G333" s="3"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="9">
         <v>50</v>
       </c>
@@ -34454,7 +34455,7 @@
       </c>
       <c r="G334" s="3"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="9">
         <v>50</v>
       </c>
@@ -34471,7 +34472,7 @@
       </c>
       <c r="G335" s="3"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="9">
         <v>50</v>
       </c>
@@ -34488,7 +34489,7 @@
       </c>
       <c r="G336" s="3"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="9">
         <v>50</v>
       </c>
@@ -34505,7 +34506,7 @@
       </c>
       <c r="G337" s="3"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="9">
         <v>51</v>
       </c>
@@ -34522,7 +34523,7 @@
       </c>
       <c r="G338" s="3"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="9">
         <v>51</v>
       </c>
@@ -34539,7 +34540,7 @@
       </c>
       <c r="G339" s="3"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="9">
         <v>51</v>
       </c>
@@ -34560,7 +34561,7 @@
       </c>
       <c r="G340" s="3"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="9">
         <v>51</v>
       </c>
@@ -34581,7 +34582,7 @@
       </c>
       <c r="G341" s="3"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="9">
         <v>51</v>
       </c>
@@ -34602,7 +34603,7 @@
       </c>
       <c r="G342" s="3"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="9">
         <v>51</v>
       </c>
@@ -34623,7 +34624,7 @@
       </c>
       <c r="G343" s="3"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="9">
         <v>51</v>
       </c>
@@ -34644,7 +34645,7 @@
       </c>
       <c r="G344" s="3"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="9">
         <v>51</v>
       </c>
@@ -34665,7 +34666,7 @@
       </c>
       <c r="G345" s="3"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="9">
         <v>52</v>
       </c>
@@ -34682,7 +34683,7 @@
       </c>
       <c r="G346" s="3"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="9">
         <v>53</v>
       </c>
@@ -34699,7 +34700,7 @@
       </c>
       <c r="G347" s="3"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="9">
         <v>53</v>
       </c>
@@ -34716,7 +34717,7 @@
       </c>
       <c r="G348" s="3"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="9">
         <v>53</v>
       </c>
@@ -34733,7 +34734,7 @@
       </c>
       <c r="G349" s="3"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="9">
         <v>53</v>
       </c>
@@ -34750,7 +34751,7 @@
       </c>
       <c r="G350" s="3"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="9">
         <v>53</v>
       </c>
@@ -34767,7 +34768,7 @@
       </c>
       <c r="G351" s="3"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="9">
         <v>53</v>
       </c>
@@ -34784,7 +34785,7 @@
       </c>
       <c r="G352" s="3"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="9">
         <v>53</v>
       </c>
@@ -34801,7 +34802,7 @@
       </c>
       <c r="G353" s="3"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="9">
         <v>53</v>
       </c>
@@ -34818,7 +34819,7 @@
       </c>
       <c r="G354" s="3"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="9">
         <v>53</v>
       </c>
@@ -34835,7 +34836,7 @@
       </c>
       <c r="G355" s="3"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="9">
         <v>54</v>
       </c>
@@ -34856,7 +34857,7 @@
       </c>
       <c r="G356" s="3"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="9">
         <v>54</v>
       </c>
@@ -34877,7 +34878,7 @@
       </c>
       <c r="G357" s="3"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="9">
         <v>54</v>
       </c>
@@ -34898,7 +34899,7 @@
       </c>
       <c r="G358" s="3"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="9">
         <v>54</v>
       </c>
@@ -34919,7 +34920,7 @@
       </c>
       <c r="G359" s="3"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="9">
         <v>54</v>
       </c>
@@ -34940,7 +34941,7 @@
       </c>
       <c r="G360" s="3"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="9">
         <v>54</v>
       </c>
@@ -34961,7 +34962,7 @@
       </c>
       <c r="G361" s="3"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="9">
         <v>54</v>
       </c>
@@ -34982,7 +34983,7 @@
       </c>
       <c r="G362" s="3"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="9">
         <v>54</v>
       </c>
@@ -35003,7 +35004,7 @@
       </c>
       <c r="G363" s="3"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="9">
         <v>54</v>
       </c>
@@ -35024,7 +35025,7 @@
       </c>
       <c r="G364" s="3"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="9">
         <v>54</v>
       </c>
@@ -35045,7 +35046,7 @@
       </c>
       <c r="G365" s="3"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="9">
         <v>54</v>
       </c>
@@ -35066,7 +35067,7 @@
       </c>
       <c r="G366" s="3"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="9">
         <v>54</v>
       </c>
@@ -35087,7 +35088,7 @@
       </c>
       <c r="G367" s="3"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="9">
         <v>54</v>
       </c>
@@ -35108,7 +35109,7 @@
       </c>
       <c r="G368" s="3"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="9">
         <v>54</v>
       </c>
@@ -35129,7 +35130,7 @@
       </c>
       <c r="G369" s="3"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="9">
         <v>54</v>
       </c>
@@ -35150,7 +35151,7 @@
       </c>
       <c r="G370" s="3"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="9">
         <v>54</v>
       </c>
@@ -35171,7 +35172,7 @@
       </c>
       <c r="G371" s="3"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="9">
         <v>55</v>
       </c>
@@ -35186,7 +35187,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="9">
         <v>56</v>
       </c>
@@ -35201,7 +35202,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="9">
         <v>57</v>
       </c>
@@ -35218,7 +35219,7 @@
       </c>
       <c r="G374" s="3"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="9">
         <v>57</v>
       </c>
@@ -35235,7 +35236,7 @@
       </c>
       <c r="G375" s="3"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="9">
         <v>57</v>
       </c>
@@ -35252,7 +35253,7 @@
       </c>
       <c r="G376" s="3"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="9">
         <v>57</v>
       </c>
@@ -35269,7 +35270,7 @@
       </c>
       <c r="G377" s="3"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="9">
         <v>57</v>
       </c>
@@ -35286,7 +35287,7 @@
       </c>
       <c r="G378" s="3"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="9">
         <v>57</v>
       </c>
@@ -35303,7 +35304,7 @@
       </c>
       <c r="G379" s="3"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="9">
         <v>57</v>
       </c>
@@ -35320,7 +35321,7 @@
       </c>
       <c r="G380" s="3"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="9">
         <v>57</v>
       </c>
@@ -35337,7 +35338,7 @@
       </c>
       <c r="G381" s="3"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="9">
         <v>57</v>
       </c>
@@ -35354,7 +35355,7 @@
       </c>
       <c r="G382" s="3"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="9">
         <v>57</v>
       </c>
@@ -35371,7 +35372,7 @@
       </c>
       <c r="G383" s="3"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="9">
         <v>57</v>
       </c>
@@ -35388,7 +35389,7 @@
       </c>
       <c r="G384" s="3"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="9">
         <v>57</v>
       </c>
@@ -35405,7 +35406,7 @@
       </c>
       <c r="G385" s="3"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="9">
         <v>57</v>
       </c>
@@ -35422,7 +35423,7 @@
       </c>
       <c r="G386" s="3"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="9">
         <v>57</v>
       </c>
@@ -35439,7 +35440,7 @@
       </c>
       <c r="G387" s="3"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="9">
         <v>57</v>
       </c>
@@ -35456,7 +35457,7 @@
       </c>
       <c r="G388" s="3"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="9">
         <v>57</v>
       </c>
@@ -35473,7 +35474,7 @@
       </c>
       <c r="G389" s="3"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="9">
         <v>57</v>
       </c>
@@ -35490,7 +35491,7 @@
       </c>
       <c r="G390" s="3"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="9">
         <v>57</v>
       </c>
@@ -35507,7 +35508,7 @@
       </c>
       <c r="G391" s="3"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="9">
         <v>57</v>
       </c>
@@ -35524,7 +35525,7 @@
       </c>
       <c r="G392" s="3"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="9">
         <v>57</v>
       </c>
@@ -35541,7 +35542,7 @@
       </c>
       <c r="G393" s="3"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="9">
         <v>57</v>
       </c>
@@ -35558,7 +35559,7 @@
       </c>
       <c r="G394" s="3"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="9">
         <v>57</v>
       </c>
@@ -35575,7 +35576,7 @@
       </c>
       <c r="G395" s="3"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="9">
         <v>57</v>
       </c>
@@ -35592,7 +35593,7 @@
       </c>
       <c r="G396" s="3"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="9">
         <v>57</v>
       </c>
@@ -35609,7 +35610,7 @@
       </c>
       <c r="G397" s="3"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="9">
         <v>57</v>
       </c>
@@ -35626,7 +35627,7 @@
       </c>
       <c r="G398" s="3"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="9">
         <v>57</v>
       </c>
@@ -35643,7 +35644,7 @@
       </c>
       <c r="G399" s="3"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="9">
         <v>57</v>
       </c>
@@ -35660,7 +35661,7 @@
       </c>
       <c r="G400" s="3"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="9">
         <v>57</v>
       </c>
@@ -35681,7 +35682,7 @@
       </c>
       <c r="G401" s="3"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="9">
         <v>57</v>
       </c>
@@ -35702,7 +35703,7 @@
       </c>
       <c r="G402" s="3"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="9">
         <v>57</v>
       </c>
@@ -35723,7 +35724,7 @@
       </c>
       <c r="G403" s="3"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="9">
         <v>57</v>
       </c>
@@ -35744,7 +35745,7 @@
       </c>
       <c r="G404" s="3"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="9">
         <v>57</v>
       </c>
@@ -35765,7 +35766,7 @@
       </c>
       <c r="G405" s="3"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="9">
         <v>57</v>
       </c>
@@ -35786,7 +35787,7 @@
       </c>
       <c r="G406" s="3"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="9">
         <v>58</v>
       </c>
@@ -35803,7 +35804,7 @@
       </c>
       <c r="G407" s="3"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="9">
         <v>58</v>
       </c>
@@ -35820,7 +35821,7 @@
       </c>
       <c r="G408" s="3"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="9">
         <v>59</v>
       </c>
@@ -35837,7 +35838,7 @@
       </c>
       <c r="G409" s="3"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="9">
         <v>59</v>
       </c>
@@ -35854,7 +35855,7 @@
       </c>
       <c r="G410" s="3"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="9">
         <v>59</v>
       </c>
@@ -35871,7 +35872,7 @@
       </c>
       <c r="G411" s="3"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="9">
         <v>60</v>
       </c>
@@ -35886,7 +35887,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="9">
         <v>61</v>
       </c>
@@ -35901,7 +35902,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="9">
         <v>62</v>
       </c>
@@ -35916,7 +35917,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="9">
         <v>63</v>
       </c>
@@ -35933,7 +35934,7 @@
       </c>
       <c r="G415" s="3"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="9">
         <v>63</v>
       </c>
@@ -35954,7 +35955,7 @@
       </c>
       <c r="G416" s="3"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="9">
         <v>63</v>
       </c>
@@ -35975,7 +35976,7 @@
       </c>
       <c r="G417" s="3"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="9">
         <v>63</v>
       </c>
@@ -35996,7 +35997,7 @@
       </c>
       <c r="G418" s="3"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="9">
         <v>63</v>
       </c>
@@ -36017,7 +36018,7 @@
       </c>
       <c r="G419" s="3"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="9">
         <v>63</v>
       </c>
@@ -36038,7 +36039,7 @@
       </c>
       <c r="G420" s="3"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="9">
         <v>63</v>
       </c>
@@ -36059,7 +36060,7 @@
       </c>
       <c r="G421" s="3"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="9">
         <v>63</v>
       </c>
@@ -36080,7 +36081,7 @@
       </c>
       <c r="G422" s="3"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="9">
         <v>63</v>
       </c>
@@ -36101,7 +36102,7 @@
       </c>
       <c r="G423" s="3"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="9">
         <v>63</v>
       </c>
@@ -36122,7 +36123,7 @@
       </c>
       <c r="G424" s="3"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="9">
         <v>63</v>
       </c>
@@ -36143,7 +36144,7 @@
       </c>
       <c r="G425" s="3"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="9">
         <v>63</v>
       </c>
@@ -36164,7 +36165,7 @@
       </c>
       <c r="G426" s="3"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="9">
         <v>63</v>
       </c>
@@ -36185,7 +36186,7 @@
       </c>
       <c r="G427" s="3"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="9">
         <v>63</v>
       </c>
@@ -36206,7 +36207,7 @@
       </c>
       <c r="G428" s="3"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="9">
         <v>63</v>
       </c>
@@ -36227,7 +36228,7 @@
       </c>
       <c r="G429" s="3"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="9">
         <v>64</v>
       </c>
@@ -36242,7 +36243,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="9">
         <v>65</v>
       </c>
@@ -36259,7 +36260,7 @@
       </c>
       <c r="G431" s="3"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="9">
         <v>65</v>
       </c>
@@ -36276,7 +36277,7 @@
       </c>
       <c r="G432" s="3"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="9">
         <v>65</v>
       </c>
@@ -36293,7 +36294,7 @@
       </c>
       <c r="G433" s="3"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="9">
         <v>65</v>
       </c>
@@ -36310,7 +36311,7 @@
       </c>
       <c r="G434" s="3"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="9">
         <v>65</v>
       </c>
@@ -36327,7 +36328,7 @@
       </c>
       <c r="G435" s="3"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="9">
         <v>65</v>
       </c>
@@ -36344,7 +36345,7 @@
       </c>
       <c r="G436" s="3"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="9">
         <v>65</v>
       </c>
@@ -36361,7 +36362,7 @@
       </c>
       <c r="G437" s="3"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="9">
         <v>65</v>
       </c>
@@ -36378,7 +36379,7 @@
       </c>
       <c r="G438" s="3"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="9">
         <v>65</v>
       </c>
@@ -36395,7 +36396,7 @@
       </c>
       <c r="G439" s="3"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="9">
         <v>65</v>
       </c>
@@ -36412,7 +36413,7 @@
       </c>
       <c r="G440" s="3"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="9">
         <v>65</v>
       </c>
@@ -36429,7 +36430,7 @@
       </c>
       <c r="G441" s="3"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="9">
         <v>65</v>
       </c>
@@ -36446,7 +36447,7 @@
       </c>
       <c r="G442" s="3"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="9">
         <v>65</v>
       </c>
@@ -36463,7 +36464,7 @@
       </c>
       <c r="G443" s="3"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="9">
         <v>66</v>
       </c>
@@ -36478,7 +36479,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="9">
         <v>67</v>
       </c>
@@ -36495,7 +36496,7 @@
       </c>
       <c r="G445" s="3"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="9">
         <v>67</v>
       </c>
@@ -36516,7 +36517,7 @@
       </c>
       <c r="G446" s="3"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="9">
         <v>67</v>
       </c>
@@ -36537,7 +36538,7 @@
       </c>
       <c r="G447" s="3"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="9">
         <v>67</v>
       </c>
@@ -36558,7 +36559,7 @@
       </c>
       <c r="G448" s="3"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="9">
         <v>67</v>
       </c>
@@ -36579,7 +36580,7 @@
       </c>
       <c r="G449" s="3"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="9">
         <v>67</v>
       </c>
@@ -36600,7 +36601,7 @@
       </c>
       <c r="G450" s="3"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="9">
         <v>67</v>
       </c>
@@ -36621,7 +36622,7 @@
       </c>
       <c r="G451" s="3"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="9">
         <v>68</v>
       </c>
@@ -36636,7 +36637,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="9">
         <v>69</v>
       </c>
@@ -36653,7 +36654,7 @@
       </c>
       <c r="G453" s="3"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="9">
         <v>69</v>
       </c>
@@ -36670,7 +36671,7 @@
       </c>
       <c r="G454" s="3"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="9">
         <v>69</v>
       </c>
@@ -36687,7 +36688,7 @@
       </c>
       <c r="G455" s="3"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="9">
         <v>69</v>
       </c>
@@ -36704,7 +36705,7 @@
       </c>
       <c r="G456" s="3"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="9">
         <v>70</v>
       </c>
@@ -36725,7 +36726,7 @@
       </c>
       <c r="G457" s="3"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="9">
         <v>70</v>
       </c>
@@ -36746,7 +36747,7 @@
       </c>
       <c r="G458" s="3"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="9">
         <v>70</v>
       </c>
@@ -36767,7 +36768,7 @@
       </c>
       <c r="G459" s="3"/>
     </row>
-    <row r="460" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="9">
         <v>70</v>
       </c>
@@ -36788,7 +36789,7 @@
       </c>
       <c r="G460" s="3"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="9">
         <v>70</v>
       </c>
@@ -36809,7 +36810,7 @@
       </c>
       <c r="G461" s="3"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="9">
         <v>70</v>
       </c>
@@ -36830,7 +36831,7 @@
       </c>
       <c r="G462" s="3"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="9">
         <v>70</v>
       </c>
@@ -36851,7 +36852,7 @@
       </c>
       <c r="G463" s="3"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="9">
         <v>70</v>
       </c>
@@ -36872,7 +36873,7 @@
       </c>
       <c r="G464" s="3"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="9">
         <v>70</v>
       </c>
@@ -36889,7 +36890,7 @@
       </c>
       <c r="G465" s="3"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="9">
         <v>70</v>
       </c>
@@ -36906,7 +36907,7 @@
       </c>
       <c r="G466" s="3"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="9">
         <v>70</v>
       </c>
@@ -36923,7 +36924,7 @@
       </c>
       <c r="G467" s="3"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="9">
         <v>70</v>
       </c>
@@ -36940,7 +36941,7 @@
       </c>
       <c r="G468" s="3"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="9">
         <v>70</v>
       </c>
@@ -36957,7 +36958,7 @@
       </c>
       <c r="G469" s="3"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="9">
         <v>70</v>
       </c>
@@ -36974,7 +36975,7 @@
       </c>
       <c r="G470" s="3"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="9">
         <v>70</v>
       </c>
@@ -36991,7 +36992,7 @@
       </c>
       <c r="G471" s="3"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="9">
         <v>70</v>
       </c>
@@ -37008,7 +37009,7 @@
       </c>
       <c r="G472" s="3"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="9">
         <v>71</v>
       </c>
@@ -37025,7 +37026,7 @@
       </c>
       <c r="G473" s="3"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="9">
         <v>71</v>
       </c>
@@ -37042,7 +37043,7 @@
       </c>
       <c r="G474" s="3"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="9">
         <v>71</v>
       </c>
@@ -37059,7 +37060,7 @@
       </c>
       <c r="G475" s="3"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="9">
         <v>72</v>
       </c>
@@ -37074,7 +37075,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="9">
         <v>73</v>
       </c>
@@ -37089,7 +37090,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="9">
         <v>74</v>
       </c>
@@ -37110,7 +37111,7 @@
       </c>
       <c r="G478" s="3"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="9">
         <v>74</v>
       </c>
@@ -37131,7 +37132,7 @@
       </c>
       <c r="G479" s="3"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="9">
         <v>74</v>
       </c>
@@ -37152,7 +37153,7 @@
       </c>
       <c r="G480" s="3"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="9">
         <v>74</v>
       </c>
@@ -37173,7 +37174,7 @@
       </c>
       <c r="G481" s="3"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="9">
         <v>74</v>
       </c>
@@ -37194,7 +37195,7 @@
       </c>
       <c r="G482" s="3"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="9">
         <v>74</v>
       </c>
@@ -37215,7 +37216,7 @@
       </c>
       <c r="G483" s="3"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="9">
         <v>74</v>
       </c>
@@ -37236,7 +37237,7 @@
       </c>
       <c r="G484" s="3"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="9">
         <v>75</v>
       </c>
@@ -37257,7 +37258,7 @@
       </c>
       <c r="G485" s="3"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="9">
         <v>75</v>
       </c>
@@ -37278,7 +37279,7 @@
       </c>
       <c r="G486" s="3"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="9">
         <v>75</v>
       </c>
@@ -37299,7 +37300,7 @@
       </c>
       <c r="G487" s="3"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="9">
         <v>75</v>
       </c>
@@ -37316,7 +37317,7 @@
       </c>
       <c r="G488" s="3"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="9">
         <v>76</v>
       </c>
@@ -37331,7 +37332,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="9">
         <v>77</v>
       </c>
@@ -37352,7 +37353,7 @@
       </c>
       <c r="G490" s="3"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="9">
         <v>77</v>
       </c>
@@ -37373,7 +37374,7 @@
       </c>
       <c r="G491" s="3"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="9">
         <v>77</v>
       </c>
@@ -37394,7 +37395,7 @@
       </c>
       <c r="G492" s="3"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="9">
         <v>77</v>
       </c>
@@ -37415,7 +37416,7 @@
       </c>
       <c r="G493" s="3"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="9">
         <v>77</v>
       </c>
@@ -37436,7 +37437,7 @@
       </c>
       <c r="G494" s="3"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="9">
         <v>77</v>
       </c>
@@ -37457,7 +37458,7 @@
       </c>
       <c r="G495" s="3"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="9">
         <v>77</v>
       </c>
@@ -37478,7 +37479,7 @@
       </c>
       <c r="G496" s="3"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="26">
         <v>78</v>
       </c>
@@ -37495,7 +37496,7 @@
       </c>
       <c r="G497" s="3"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="26">
         <v>78</v>
       </c>
@@ -37512,7 +37513,7 @@
       </c>
       <c r="G498" s="3"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="26">
         <v>78</v>
       </c>
@@ -37529,7 +37530,7 @@
       </c>
       <c r="G499" s="3"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="26">
         <v>78</v>
       </c>
@@ -37546,7 +37547,7 @@
       </c>
       <c r="G500" s="3"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="9">
         <v>79</v>
       </c>
@@ -37563,7 +37564,7 @@
       </c>
       <c r="G501" s="3"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="9">
         <v>79</v>
       </c>
@@ -37580,7 +37581,7 @@
       </c>
       <c r="G502" s="3"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="9">
         <v>79</v>
       </c>
@@ -37597,7 +37598,7 @@
       </c>
       <c r="G503" s="3"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="9">
         <v>79</v>
       </c>
@@ -37614,7 +37615,7 @@
       </c>
       <c r="G504" s="3"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="9">
         <v>79</v>
       </c>
@@ -37631,7 +37632,7 @@
       </c>
       <c r="G505" s="3"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="9">
         <v>79</v>
       </c>
@@ -37648,7 +37649,7 @@
       </c>
       <c r="G506" s="3"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="9">
         <v>79</v>
       </c>
@@ -37665,7 +37666,7 @@
       </c>
       <c r="G507" s="3"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="9">
         <v>79</v>
       </c>
@@ -37682,7 +37683,7 @@
       </c>
       <c r="G508" s="3"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="9">
         <v>79</v>
       </c>
@@ -37699,7 +37700,7 @@
       </c>
       <c r="G509" s="3"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="9">
         <v>79</v>
       </c>
@@ -37716,7 +37717,7 @@
       </c>
       <c r="G510" s="3"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="9">
         <v>79</v>
       </c>
@@ -37733,7 +37734,7 @@
       </c>
       <c r="G511" s="3"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="9">
         <v>79</v>
       </c>
@@ -37750,7 +37751,7 @@
       </c>
       <c r="G512" s="3"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="9">
         <v>79</v>
       </c>
@@ -37771,7 +37772,7 @@
       </c>
       <c r="G513" s="3"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="9">
         <v>79</v>
       </c>
@@ -37792,7 +37793,7 @@
       </c>
       <c r="G514" s="3"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="9">
         <v>79</v>
       </c>
@@ -37813,7 +37814,7 @@
       </c>
       <c r="G515" s="3"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="9">
         <v>79</v>
       </c>
@@ -37834,7 +37835,7 @@
       </c>
       <c r="G516" s="3"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="9">
         <v>79</v>
       </c>
@@ -37855,7 +37856,7 @@
       </c>
       <c r="G517" s="3"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="9">
         <v>79</v>
       </c>
@@ -37876,7 +37877,7 @@
       </c>
       <c r="G518" s="3"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="9">
         <v>80</v>
       </c>
@@ -37893,7 +37894,7 @@
       </c>
       <c r="G519" s="3"/>
     </row>
-    <row r="520" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="9">
         <v>81</v>
       </c>
@@ -37910,7 +37911,7 @@
       </c>
       <c r="G520" s="3"/>
     </row>
-    <row r="521" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="9">
         <v>81</v>
       </c>
@@ -37927,7 +37928,7 @@
       </c>
       <c r="G521" s="3"/>
     </row>
-    <row r="522" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="9">
         <v>81</v>
       </c>
@@ -37944,7 +37945,7 @@
       </c>
       <c r="G522" s="3"/>
     </row>
-    <row r="523" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="9">
         <v>81</v>
       </c>
@@ -37961,7 +37962,7 @@
       </c>
       <c r="G523" s="3"/>
     </row>
-    <row r="524" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="9">
         <v>81</v>
       </c>
@@ -37978,7 +37979,7 @@
       </c>
       <c r="G524" s="3"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="9">
         <v>82</v>
       </c>
@@ -37993,7 +37994,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="9">
         <v>83</v>
       </c>
@@ -38008,7 +38009,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="9">
         <v>84</v>
       </c>
@@ -38023,7 +38024,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="9">
         <v>85</v>
       </c>
@@ -38040,7 +38041,7 @@
       </c>
       <c r="G528" s="3"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="9">
         <v>86</v>
       </c>
@@ -38057,7 +38058,7 @@
       </c>
       <c r="G529" s="3"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="9">
         <v>87</v>
       </c>
@@ -38074,7 +38075,7 @@
       </c>
       <c r="G530" s="3"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="9">
         <v>87</v>
       </c>
@@ -38091,7 +38092,7 @@
       </c>
       <c r="G531" s="3"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="9">
         <v>88</v>
       </c>
@@ -38106,7 +38107,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="9">
         <v>89</v>
       </c>
@@ -38123,7 +38124,7 @@
       </c>
       <c r="G533" s="3"/>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="9">
         <v>90</v>
       </c>
@@ -38140,7 +38141,7 @@
       </c>
       <c r="G534" s="3"/>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="9">
         <v>90</v>
       </c>
@@ -38157,7 +38158,7 @@
       </c>
       <c r="G535" s="3"/>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="9">
         <v>90</v>
       </c>
@@ -38178,7 +38179,7 @@
       </c>
       <c r="G536" s="3"/>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="9">
         <v>90</v>
       </c>
@@ -38195,7 +38196,7 @@
       </c>
       <c r="G537" s="3"/>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="9">
         <v>91</v>
       </c>
@@ -38210,7 +38211,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="9">
         <v>92</v>
       </c>
@@ -38225,7 +38226,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="9">
         <v>93</v>
       </c>
@@ -38246,7 +38247,7 @@
       </c>
       <c r="G540" s="3"/>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="9">
         <v>93</v>
       </c>
@@ -38267,7 +38268,7 @@
       </c>
       <c r="G541" s="3"/>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="9">
         <v>93</v>
       </c>
@@ -38288,7 +38289,7 @@
       </c>
       <c r="G542" s="3"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="9">
         <v>93</v>
       </c>
@@ -38309,7 +38310,7 @@
       </c>
       <c r="G543" s="3"/>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="9">
         <v>93</v>
       </c>
@@ -38330,7 +38331,7 @@
       </c>
       <c r="G544" s="3"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="9">
         <v>93</v>
       </c>
@@ -38351,7 +38352,7 @@
       </c>
       <c r="G545" s="3"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="9">
         <v>93</v>
       </c>
@@ -38372,7 +38373,7 @@
       </c>
       <c r="G546" s="3"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="9">
         <v>94</v>
       </c>
@@ -38387,7 +38388,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="9">
         <v>95</v>
       </c>
@@ -38402,7 +38403,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="9">
         <v>96</v>
       </c>
@@ -38419,7 +38420,7 @@
       </c>
       <c r="G549" s="3"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="9">
         <v>96</v>
       </c>
@@ -38436,7 +38437,7 @@
       </c>
       <c r="G550" s="3"/>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="9">
         <v>97</v>
       </c>
@@ -38457,7 +38458,7 @@
       </c>
       <c r="G551" s="3"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="9">
         <v>97</v>
       </c>
@@ -38478,7 +38479,7 @@
       </c>
       <c r="G552" s="3"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="9">
         <v>97</v>
       </c>
@@ -38499,7 +38500,7 @@
       </c>
       <c r="G553" s="3"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="9">
         <v>97</v>
       </c>
@@ -38520,7 +38521,7 @@
       </c>
       <c r="G554" s="3"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="9">
         <v>97</v>
       </c>
@@ -38541,7 +38542,7 @@
       </c>
       <c r="G555" s="3"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="9">
         <v>97</v>
       </c>
@@ -38562,7 +38563,7 @@
       </c>
       <c r="G556" s="3"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="9">
         <v>97</v>
       </c>
@@ -38584,7 +38585,13 @@
       <c r="G557" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G557"/>
+  <autoFilter ref="A1:G557">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="00697-2024-OEFA/DFAI-SSAG"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Paolo/Scripts/Factores/Info_2024.xlsx
+++ b/Paolo/Scripts/Factores/Info_2024.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3896" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3964" uniqueCount="793">
   <si>
     <t>Correlativo</t>
   </si>
@@ -5531,7 +5531,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28109,12 +28109,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="G559" sqref="G559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28150,7 +28149,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -28171,7 +28170,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -28192,7 +28191,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -28213,7 +28212,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -28234,7 +28233,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -28255,7 +28254,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -28276,7 +28275,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -28297,7 +28296,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -28337,7 +28336,9 @@
       <c r="F10" s="11">
         <v>0.08</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
@@ -28358,7 +28359,9 @@
       <c r="F11" s="11">
         <v>0.08</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
@@ -28379,7 +28382,9 @@
       <c r="F12" s="11">
         <v>0.08</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
@@ -28400,7 +28405,9 @@
       <c r="F13" s="11">
         <v>0.08</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -28421,7 +28428,9 @@
       <c r="F14" s="11">
         <v>0.08</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
@@ -28442,7 +28451,9 @@
       <c r="F15" s="11">
         <v>0.08</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
@@ -28463,9 +28474,11 @@
       <c r="F16" s="11">
         <v>0.08</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>3</v>
       </c>
@@ -28482,7 +28495,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>3</v>
       </c>
@@ -28499,7 +28512,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>3</v>
       </c>
@@ -28520,7 +28533,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3</v>
       </c>
@@ -28541,7 +28554,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>3</v>
       </c>
@@ -28562,7 +28575,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>3</v>
       </c>
@@ -28583,7 +28596,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>3</v>
       </c>
@@ -28604,7 +28617,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>3</v>
       </c>
@@ -28625,7 +28638,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>3</v>
       </c>
@@ -28646,7 +28659,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>3</v>
       </c>
@@ -28663,7 +28676,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>4</v>
       </c>
@@ -28678,9 +28691,11 @@
       <c r="F27" s="13">
         <v>1</v>
       </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>4</v>
       </c>
@@ -28695,9 +28710,11 @@
       <c r="F28" s="13">
         <v>1</v>
       </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>4</v>
       </c>
@@ -28712,9 +28729,11 @@
       <c r="F29" s="13">
         <v>1</v>
       </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>4</v>
       </c>
@@ -28729,9 +28748,11 @@
       <c r="F30" s="13">
         <v>1</v>
       </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>4</v>
       </c>
@@ -28746,9 +28767,11 @@
       <c r="F31" s="13">
         <v>1</v>
       </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>4</v>
       </c>
@@ -28763,9 +28786,11 @@
       <c r="F32" s="13">
         <v>1</v>
       </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>4</v>
       </c>
@@ -28780,9 +28805,11 @@
       <c r="F33" s="13">
         <v>1</v>
       </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>4</v>
       </c>
@@ -28797,9 +28824,11 @@
       <c r="F34" s="13">
         <v>1</v>
       </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>4</v>
       </c>
@@ -28814,9 +28843,11 @@
       <c r="F35" s="13">
         <v>1</v>
       </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>4</v>
       </c>
@@ -28831,9 +28862,11 @@
       <c r="F36" s="13">
         <v>1</v>
       </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>4</v>
       </c>
@@ -28848,9 +28881,11 @@
       <c r="F37" s="13">
         <v>1</v>
       </c>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>4</v>
       </c>
@@ -28865,9 +28900,11 @@
       <c r="F38" s="13">
         <v>1</v>
       </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>4</v>
       </c>
@@ -28882,9 +28919,11 @@
       <c r="F39" s="13">
         <v>1</v>
       </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>4</v>
       </c>
@@ -28899,9 +28938,11 @@
       <c r="F40" s="13">
         <v>1</v>
       </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>4</v>
       </c>
@@ -28916,9 +28957,11 @@
       <c r="F41" s="13">
         <v>1</v>
       </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>4</v>
       </c>
@@ -28933,9 +28976,11 @@
       <c r="F42" s="13">
         <v>1</v>
       </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>5</v>
       </c>
@@ -28954,9 +28999,11 @@
       <c r="F43" s="13">
         <v>0.4</v>
       </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>5</v>
       </c>
@@ -28975,9 +29022,11 @@
       <c r="F44" s="13">
         <v>0.3</v>
       </c>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>5</v>
       </c>
@@ -28996,9 +29045,11 @@
       <c r="F45" s="13">
         <v>0.1</v>
       </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>5</v>
       </c>
@@ -29017,9 +29068,11 @@
       <c r="F46" s="13">
         <v>0.04</v>
       </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>5</v>
       </c>
@@ -29038,9 +29091,11 @@
       <c r="F47" s="13">
         <v>0.06</v>
       </c>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>5</v>
       </c>
@@ -29059,9 +29114,11 @@
       <c r="F48" s="13">
         <v>-0.4</v>
       </c>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>5</v>
       </c>
@@ -29080,9 +29137,11 @@
       <c r="F49" s="13">
         <v>0.4</v>
       </c>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>5</v>
       </c>
@@ -29101,9 +29160,11 @@
       <c r="F50" s="13">
         <v>0.3</v>
       </c>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>5</v>
       </c>
@@ -29122,9 +29183,11 @@
       <c r="F51" s="13">
         <v>0.1</v>
       </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>5</v>
       </c>
@@ -29143,9 +29206,11 @@
       <c r="F52" s="13">
         <v>0.04</v>
       </c>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>5</v>
       </c>
@@ -29164,9 +29229,11 @@
       <c r="F53" s="13">
         <v>0.06</v>
       </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>5</v>
       </c>
@@ -29185,9 +29252,11 @@
       <c r="F54" s="13">
         <v>-0.4</v>
       </c>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>5</v>
       </c>
@@ -29206,9 +29275,11 @@
       <c r="F55" s="13">
         <v>0.4</v>
       </c>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>5</v>
       </c>
@@ -29227,9 +29298,11 @@
       <c r="F56" s="13">
         <v>0.3</v>
       </c>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>5</v>
       </c>
@@ -29248,9 +29321,11 @@
       <c r="F57" s="13">
         <v>0.1</v>
       </c>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>5</v>
       </c>
@@ -29269,9 +29344,11 @@
       <c r="F58" s="13">
         <v>0.04</v>
       </c>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>5</v>
       </c>
@@ -29290,9 +29367,11 @@
       <c r="F59" s="13">
         <v>0.06</v>
       </c>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>5</v>
       </c>
@@ -29311,9 +29390,11 @@
       <c r="F60" s="13">
         <v>-0.4</v>
       </c>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>5</v>
       </c>
@@ -29332,9 +29413,11 @@
       <c r="F61" s="13">
         <v>0.4</v>
       </c>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>5</v>
       </c>
@@ -29353,9 +29436,11 @@
       <c r="F62" s="13">
         <v>0.3</v>
       </c>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>5</v>
       </c>
@@ -29374,9 +29459,11 @@
       <c r="F63" s="13">
         <v>0.1</v>
       </c>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>5</v>
       </c>
@@ -29395,9 +29482,11 @@
       <c r="F64" s="13">
         <v>0.04</v>
       </c>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>5</v>
       </c>
@@ -29416,9 +29505,11 @@
       <c r="F65" s="13">
         <v>0.06</v>
       </c>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G65" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>5</v>
       </c>
@@ -29433,9 +29524,11 @@
       <c r="F66" s="13">
         <v>1</v>
       </c>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>5</v>
       </c>
@@ -29450,9 +29543,11 @@
       <c r="F67" s="13">
         <v>1</v>
       </c>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>5</v>
       </c>
@@ -29471,9 +29566,11 @@
       <c r="F68" s="13">
         <v>0.32</v>
       </c>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>5</v>
       </c>
@@ -29492,9 +29589,11 @@
       <c r="F69" s="13">
         <v>0.1</v>
       </c>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>5</v>
       </c>
@@ -29513,9 +29612,11 @@
       <c r="F70" s="13">
         <v>0.12</v>
       </c>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>5</v>
       </c>
@@ -29534,9 +29635,11 @@
       <c r="F71" s="13">
         <v>0.1</v>
       </c>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>5</v>
       </c>
@@ -29555,9 +29658,11 @@
       <c r="F72" s="13">
         <v>0.04</v>
       </c>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>5</v>
       </c>
@@ -29576,9 +29681,11 @@
       <c r="F73" s="13">
         <v>0.06</v>
       </c>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>5</v>
       </c>
@@ -29597,9 +29704,11 @@
       <c r="F74" s="13">
         <v>0.6</v>
       </c>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G74" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>5</v>
       </c>
@@ -29618,9 +29727,11 @@
       <c r="F75" s="13">
         <v>0.6</v>
       </c>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>5</v>
       </c>
@@ -29639,9 +29750,11 @@
       <c r="F76" s="13">
         <v>0.04</v>
       </c>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>5</v>
       </c>
@@ -29660,9 +29773,11 @@
       <c r="F77" s="13">
         <v>0.06</v>
       </c>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>5</v>
       </c>
@@ -29681,9 +29796,11 @@
       <c r="F78" s="13">
         <v>0.6</v>
       </c>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>5</v>
       </c>
@@ -29702,9 +29819,11 @@
       <c r="F79" s="13">
         <v>0.6</v>
       </c>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>5</v>
       </c>
@@ -29723,9 +29842,11 @@
       <c r="F80" s="13">
         <v>0.04</v>
       </c>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>5</v>
       </c>
@@ -29744,9 +29865,11 @@
       <c r="F81" s="13">
         <v>0.06</v>
       </c>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G81" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>5</v>
       </c>
@@ -29761,9 +29884,11 @@
       <c r="F82" s="13">
         <v>1</v>
       </c>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G82" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>5</v>
       </c>
@@ -29778,9 +29903,11 @@
       <c r="F83" s="13">
         <v>1</v>
       </c>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G83" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>6</v>
       </c>
@@ -29797,7 +29924,7 @@
       </c>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>6</v>
       </c>
@@ -29814,7 +29941,7 @@
       </c>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>6</v>
       </c>
@@ -29831,7 +29958,7 @@
       </c>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>7</v>
       </c>
@@ -29848,7 +29975,7 @@
       </c>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>7</v>
       </c>
@@ -29865,7 +29992,7 @@
       </c>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>7</v>
       </c>
@@ -29882,7 +30009,7 @@
       </c>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>7</v>
       </c>
@@ -29899,7 +30026,7 @@
       </c>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>7</v>
       </c>
@@ -29916,7 +30043,7 @@
       </c>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>7</v>
       </c>
@@ -29933,7 +30060,7 @@
       </c>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>7</v>
       </c>
@@ -29950,7 +30077,7 @@
       </c>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>7</v>
       </c>
@@ -29967,7 +30094,7 @@
       </c>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>7</v>
       </c>
@@ -29984,7 +30111,7 @@
       </c>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>8</v>
       </c>
@@ -29999,9 +30126,11 @@
       <c r="F96" s="13">
         <v>1</v>
       </c>
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G96" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>9</v>
       </c>
@@ -30016,9 +30145,11 @@
       <c r="F97" s="13">
         <v>1</v>
       </c>
-      <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G97" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <v>9</v>
       </c>
@@ -30037,9 +30168,11 @@
       <c r="F98" s="13">
         <v>-0.2</v>
       </c>
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G98" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
         <v>9</v>
       </c>
@@ -30054,9 +30187,11 @@
       <c r="F99" s="13">
         <v>1</v>
       </c>
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G99" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="9">
         <v>10</v>
       </c>
@@ -30077,7 +30212,7 @@
       </c>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>10</v>
       </c>
@@ -30098,7 +30233,7 @@
       </c>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="9">
         <v>10</v>
       </c>
@@ -30119,7 +30254,7 @@
       </c>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>10</v>
       </c>
@@ -30140,7 +30275,7 @@
       </c>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
         <v>10</v>
       </c>
@@ -30161,7 +30296,7 @@
       </c>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
         <v>10</v>
       </c>
@@ -30182,7 +30317,7 @@
       </c>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="9">
         <v>10</v>
       </c>
@@ -30199,7 +30334,7 @@
       </c>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
         <v>10</v>
       </c>
@@ -30216,7 +30351,7 @@
       </c>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="9">
         <v>10</v>
       </c>
@@ -30233,7 +30368,7 @@
       </c>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="9">
         <v>10</v>
       </c>
@@ -30250,7 +30385,7 @@
       </c>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
         <v>10</v>
       </c>
@@ -30267,7 +30402,7 @@
       </c>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="9">
         <v>10</v>
       </c>
@@ -30288,7 +30423,7 @@
       </c>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="9">
         <v>10</v>
       </c>
@@ -30309,7 +30444,7 @@
       </c>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="9">
         <v>10</v>
       </c>
@@ -30330,7 +30465,7 @@
       </c>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="9">
         <v>10</v>
       </c>
@@ -30351,7 +30486,7 @@
       </c>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="9">
         <v>10</v>
       </c>
@@ -30372,7 +30507,7 @@
       </c>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="9">
         <v>10</v>
       </c>
@@ -30393,7 +30528,7 @@
       </c>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="9">
         <v>11</v>
       </c>
@@ -30410,7 +30545,7 @@
       </c>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
         <v>11</v>
       </c>
@@ -30427,7 +30562,7 @@
       </c>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
         <v>11</v>
       </c>
@@ -30448,7 +30583,7 @@
       </c>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="9">
         <v>11</v>
       </c>
@@ -30469,7 +30604,7 @@
       </c>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="9">
         <v>11</v>
       </c>
@@ -30490,7 +30625,7 @@
       </c>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="9">
         <v>11</v>
       </c>
@@ -30511,7 +30646,7 @@
       </c>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="9">
         <v>11</v>
       </c>
@@ -30532,7 +30667,7 @@
       </c>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="9">
         <v>11</v>
       </c>
@@ -30553,7 +30688,7 @@
       </c>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="9">
         <v>12</v>
       </c>
@@ -30568,7 +30703,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="9">
         <v>13</v>
       </c>
@@ -30585,7 +30720,7 @@
       </c>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
         <v>13</v>
       </c>
@@ -30602,7 +30737,7 @@
       </c>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
         <v>13</v>
       </c>
@@ -30619,7 +30754,7 @@
       </c>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
         <v>13</v>
       </c>
@@ -30636,7 +30771,7 @@
       </c>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
         <v>14</v>
       </c>
@@ -30653,7 +30788,7 @@
       </c>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
         <v>14</v>
       </c>
@@ -30670,7 +30805,7 @@
       </c>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="9">
         <v>14</v>
       </c>
@@ -30687,7 +30822,7 @@
       </c>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="9">
         <v>14</v>
       </c>
@@ -30704,7 +30839,7 @@
       </c>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="9">
         <v>14</v>
       </c>
@@ -30721,7 +30856,7 @@
       </c>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="9">
         <v>14</v>
       </c>
@@ -30738,7 +30873,7 @@
       </c>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="9">
         <v>14</v>
       </c>
@@ -30755,7 +30890,7 @@
       </c>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="9">
         <v>14</v>
       </c>
@@ -30772,7 +30907,7 @@
       </c>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="9">
         <v>14</v>
       </c>
@@ -30789,7 +30924,7 @@
       </c>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="9">
         <v>14</v>
       </c>
@@ -30806,7 +30941,7 @@
       </c>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="9">
         <v>14</v>
       </c>
@@ -30823,7 +30958,7 @@
       </c>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="9">
         <v>14</v>
       </c>
@@ -30840,7 +30975,7 @@
       </c>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="9">
         <v>14</v>
       </c>
@@ -30857,7 +30992,7 @@
       </c>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="9">
         <v>14</v>
       </c>
@@ -30874,7 +31009,7 @@
       </c>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="9">
         <v>14</v>
       </c>
@@ -30891,7 +31026,7 @@
       </c>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="9">
         <v>14</v>
       </c>
@@ -30908,7 +31043,7 @@
       </c>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="9">
         <v>14</v>
       </c>
@@ -30925,7 +31060,7 @@
       </c>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="9">
         <v>14</v>
       </c>
@@ -30942,7 +31077,7 @@
       </c>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="9">
         <v>14</v>
       </c>
@@ -30959,7 +31094,7 @@
       </c>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="9">
         <v>14</v>
       </c>
@@ -30976,7 +31111,7 @@
       </c>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="9">
         <v>14</v>
       </c>
@@ -30993,7 +31128,7 @@
       </c>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="9">
         <v>14</v>
       </c>
@@ -31010,7 +31145,7 @@
       </c>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="9">
         <v>14</v>
       </c>
@@ -31027,7 +31162,7 @@
       </c>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="9">
         <v>14</v>
       </c>
@@ -31044,7 +31179,7 @@
       </c>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="9">
         <v>14</v>
       </c>
@@ -31061,7 +31196,7 @@
       </c>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="9">
         <v>14</v>
       </c>
@@ -31078,7 +31213,7 @@
       </c>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="9">
         <v>14</v>
       </c>
@@ -31095,7 +31230,7 @@
       </c>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="9">
         <v>14</v>
       </c>
@@ -31112,7 +31247,7 @@
       </c>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="9">
         <v>14</v>
       </c>
@@ -31129,7 +31264,7 @@
       </c>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="9">
         <v>14</v>
       </c>
@@ -31146,7 +31281,7 @@
       </c>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="9">
         <v>14</v>
       </c>
@@ -31163,7 +31298,7 @@
       </c>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="9">
         <v>14</v>
       </c>
@@ -31180,7 +31315,7 @@
       </c>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="9">
         <v>14</v>
       </c>
@@ -31197,7 +31332,7 @@
       </c>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="9">
         <v>14</v>
       </c>
@@ -31214,7 +31349,7 @@
       </c>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="9">
         <v>14</v>
       </c>
@@ -31231,7 +31366,7 @@
       </c>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="9">
         <v>14</v>
       </c>
@@ -31248,7 +31383,7 @@
       </c>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="9">
         <v>14</v>
       </c>
@@ -31265,7 +31400,7 @@
       </c>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="9">
         <v>14</v>
       </c>
@@ -31282,7 +31417,7 @@
       </c>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="9">
         <v>14</v>
       </c>
@@ -31299,7 +31434,7 @@
       </c>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="9">
         <v>14</v>
       </c>
@@ -31316,7 +31451,7 @@
       </c>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="9">
         <v>14</v>
       </c>
@@ -31333,7 +31468,7 @@
       </c>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="9">
         <v>14</v>
       </c>
@@ -31350,7 +31485,7 @@
       </c>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="9">
         <v>14</v>
       </c>
@@ -31367,7 +31502,7 @@
       </c>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
         <v>14</v>
       </c>
@@ -31384,7 +31519,7 @@
       </c>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="9">
         <v>14</v>
       </c>
@@ -31401,7 +31536,7 @@
       </c>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="9">
         <v>14</v>
       </c>
@@ -31418,7 +31553,7 @@
       </c>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="9">
         <v>14</v>
       </c>
@@ -31435,7 +31570,7 @@
       </c>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="9">
         <v>14</v>
       </c>
@@ -31452,7 +31587,7 @@
       </c>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="9">
         <v>14</v>
       </c>
@@ -31469,7 +31604,7 @@
       </c>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="9">
         <v>14</v>
       </c>
@@ -31486,7 +31621,7 @@
       </c>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="9">
         <v>14</v>
       </c>
@@ -31507,7 +31642,7 @@
       </c>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="9">
         <v>14</v>
       </c>
@@ -31528,7 +31663,7 @@
       </c>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="9">
         <v>14</v>
       </c>
@@ -31549,7 +31684,7 @@
       </c>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="9">
         <v>14</v>
       </c>
@@ -31570,7 +31705,7 @@
       </c>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="9">
         <v>14</v>
       </c>
@@ -31591,7 +31726,7 @@
       </c>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="9">
         <v>14</v>
       </c>
@@ -31612,7 +31747,7 @@
       </c>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="9">
         <v>14</v>
       </c>
@@ -31629,7 +31764,7 @@
       </c>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="9">
         <v>14</v>
       </c>
@@ -31646,7 +31781,7 @@
       </c>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="9">
         <v>15</v>
       </c>
@@ -31663,7 +31798,7 @@
       </c>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="9">
         <v>16</v>
       </c>
@@ -31680,7 +31815,7 @@
       </c>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="9">
         <v>16</v>
       </c>
@@ -31697,7 +31832,7 @@
       </c>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="9">
         <v>16</v>
       </c>
@@ -31714,7 +31849,7 @@
       </c>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="9">
         <v>17</v>
       </c>
@@ -31731,7 +31866,7 @@
       </c>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="9">
         <v>17</v>
       </c>
@@ -31748,7 +31883,7 @@
       </c>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="9">
         <v>18</v>
       </c>
@@ -31763,7 +31898,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="9">
         <v>19</v>
       </c>
@@ -31784,7 +31919,7 @@
       </c>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="9">
         <v>19</v>
       </c>
@@ -31805,7 +31940,7 @@
       </c>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="9">
         <v>19</v>
       </c>
@@ -31826,7 +31961,7 @@
       </c>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="9">
         <v>19</v>
       </c>
@@ -31847,7 +31982,7 @@
       </c>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="9">
         <v>19</v>
       </c>
@@ -31868,7 +32003,7 @@
       </c>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="9">
         <v>19</v>
       </c>
@@ -31889,7 +32024,7 @@
       </c>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="9">
         <v>19</v>
       </c>
@@ -31910,7 +32045,7 @@
       </c>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="9">
         <v>19</v>
       </c>
@@ -31931,7 +32066,7 @@
       </c>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="9">
         <v>19</v>
       </c>
@@ -31952,7 +32087,7 @@
       </c>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="9">
         <v>19</v>
       </c>
@@ -31973,7 +32108,7 @@
       </c>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="9">
         <v>19</v>
       </c>
@@ -31994,7 +32129,7 @@
       </c>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="9">
         <v>19</v>
       </c>
@@ -32015,7 +32150,7 @@
       </c>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="9">
         <v>19</v>
       </c>
@@ -32036,7 +32171,7 @@
       </c>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="9">
         <v>19</v>
       </c>
@@ -32057,7 +32192,7 @@
       </c>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="9">
         <v>19</v>
       </c>
@@ -32078,7 +32213,7 @@
       </c>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="9">
         <v>19</v>
       </c>
@@ -32099,7 +32234,7 @@
       </c>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="9">
         <v>19</v>
       </c>
@@ -32120,7 +32255,7 @@
       </c>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="9">
         <v>19</v>
       </c>
@@ -32141,7 +32276,7 @@
       </c>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="9">
         <v>19</v>
       </c>
@@ -32162,7 +32297,7 @@
       </c>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="9">
         <v>19</v>
       </c>
@@ -32183,7 +32318,7 @@
       </c>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="9">
         <v>19</v>
       </c>
@@ -32204,7 +32339,7 @@
       </c>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="9">
         <v>19</v>
       </c>
@@ -32225,7 +32360,7 @@
       </c>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="9">
         <v>19</v>
       </c>
@@ -32246,7 +32381,7 @@
       </c>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="9">
         <v>19</v>
       </c>
@@ -32267,7 +32402,7 @@
       </c>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="9">
         <v>19</v>
       </c>
@@ -32288,7 +32423,7 @@
       </c>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="9">
         <v>19</v>
       </c>
@@ -32309,7 +32444,7 @@
       </c>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="9">
         <v>19</v>
       </c>
@@ -32330,7 +32465,7 @@
       </c>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="9">
         <v>19</v>
       </c>
@@ -32351,7 +32486,7 @@
       </c>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="9">
         <v>19</v>
       </c>
@@ -32372,7 +32507,7 @@
       </c>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="9">
         <v>19</v>
       </c>
@@ -32393,7 +32528,7 @@
       </c>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="9">
         <v>19</v>
       </c>
@@ -32414,7 +32549,7 @@
       </c>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="9">
         <v>19</v>
       </c>
@@ -32435,7 +32570,7 @@
       </c>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="9">
         <v>19</v>
       </c>
@@ -32456,7 +32591,7 @@
       </c>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="9">
         <v>19</v>
       </c>
@@ -32477,7 +32612,7 @@
       </c>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="9">
         <v>19</v>
       </c>
@@ -32498,7 +32633,7 @@
       </c>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="9">
         <v>19</v>
       </c>
@@ -32519,7 +32654,7 @@
       </c>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="9">
         <v>19</v>
       </c>
@@ -32536,7 +32671,7 @@
       </c>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="9">
         <v>20</v>
       </c>
@@ -32551,7 +32686,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="9">
         <v>21</v>
       </c>
@@ -32566,7 +32701,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="9">
         <v>22</v>
       </c>
@@ -32581,7 +32716,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="9">
         <v>23</v>
       </c>
@@ -32596,7 +32731,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="9">
         <v>24</v>
       </c>
@@ -32613,7 +32748,7 @@
       </c>
       <c r="G236" s="3"/>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="9">
         <v>24</v>
       </c>
@@ -32630,7 +32765,7 @@
       </c>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="9">
         <v>24</v>
       </c>
@@ -32647,7 +32782,7 @@
       </c>
       <c r="G238" s="3"/>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="9">
         <v>24</v>
       </c>
@@ -32664,7 +32799,7 @@
       </c>
       <c r="G239" s="3"/>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="9">
         <v>24</v>
       </c>
@@ -32681,7 +32816,7 @@
       </c>
       <c r="G240" s="3"/>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="9">
         <v>24</v>
       </c>
@@ -32698,7 +32833,7 @@
       </c>
       <c r="G241" s="3"/>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="9">
         <v>24</v>
       </c>
@@ -32715,7 +32850,7 @@
       </c>
       <c r="G242" s="3"/>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="9">
         <v>25</v>
       </c>
@@ -32732,7 +32867,7 @@
       </c>
       <c r="G243" s="3"/>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="9">
         <v>26</v>
       </c>
@@ -32747,7 +32882,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="9">
         <v>27</v>
       </c>
@@ -32768,7 +32903,7 @@
       </c>
       <c r="G245" s="3"/>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="9">
         <v>27</v>
       </c>
@@ -32789,7 +32924,7 @@
       </c>
       <c r="G246" s="3"/>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="9">
         <v>27</v>
       </c>
@@ -32810,7 +32945,7 @@
       </c>
       <c r="G247" s="3"/>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="9">
         <v>27</v>
       </c>
@@ -32831,7 +32966,7 @@
       </c>
       <c r="G248" s="3"/>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="9">
         <v>27</v>
       </c>
@@ -32852,7 +32987,7 @@
       </c>
       <c r="G249" s="3"/>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="9">
         <v>27</v>
       </c>
@@ -32873,7 +33008,7 @@
       </c>
       <c r="G250" s="3"/>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="9">
         <v>27</v>
       </c>
@@ -32894,7 +33029,7 @@
       </c>
       <c r="G251" s="3"/>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="9">
         <v>28</v>
       </c>
@@ -32911,7 +33046,7 @@
       </c>
       <c r="G252" s="3"/>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="9">
         <v>28</v>
       </c>
@@ -32928,7 +33063,7 @@
       </c>
       <c r="G253" s="3"/>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="9">
         <v>28</v>
       </c>
@@ -32945,7 +33080,7 @@
       </c>
       <c r="G254" s="3"/>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="9">
         <v>29</v>
       </c>
@@ -32962,7 +33097,7 @@
       </c>
       <c r="G255" s="3"/>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="9">
         <v>29</v>
       </c>
@@ -32979,7 +33114,7 @@
       </c>
       <c r="G256" s="3"/>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="9">
         <v>29</v>
       </c>
@@ -32996,7 +33131,7 @@
       </c>
       <c r="G257" s="3"/>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="9">
         <v>30</v>
       </c>
@@ -33013,7 +33148,7 @@
       </c>
       <c r="G258" s="3"/>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="9">
         <v>30</v>
       </c>
@@ -33030,7 +33165,7 @@
       </c>
       <c r="G259" s="3"/>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="9">
         <v>31</v>
       </c>
@@ -33051,7 +33186,7 @@
       </c>
       <c r="G260" s="3"/>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="9">
         <v>31</v>
       </c>
@@ -33072,7 +33207,7 @@
       </c>
       <c r="G261" s="3"/>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="9">
         <v>31</v>
       </c>
@@ -33093,7 +33228,7 @@
       </c>
       <c r="G262" s="3"/>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="9">
         <v>31</v>
       </c>
@@ -33114,7 +33249,7 @@
       </c>
       <c r="G263" s="3"/>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="9">
         <v>31</v>
       </c>
@@ -33135,7 +33270,7 @@
       </c>
       <c r="G264" s="3"/>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="9">
         <v>31</v>
       </c>
@@ -33156,7 +33291,7 @@
       </c>
       <c r="G265" s="3"/>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="9">
         <v>31</v>
       </c>
@@ -33177,7 +33312,7 @@
       </c>
       <c r="G266" s="3"/>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="9">
         <v>32</v>
       </c>
@@ -33192,7 +33327,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="9">
         <v>33</v>
       </c>
@@ -33207,7 +33342,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="9">
         <v>34</v>
       </c>
@@ -33224,7 +33359,7 @@
       </c>
       <c r="G269" s="3"/>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="9">
         <v>35</v>
       </c>
@@ -33241,7 +33376,7 @@
       </c>
       <c r="G270" s="3"/>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="9">
         <v>35</v>
       </c>
@@ -33258,7 +33393,7 @@
       </c>
       <c r="G271" s="3"/>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="9">
         <v>35</v>
       </c>
@@ -33275,7 +33410,7 @@
       </c>
       <c r="G272" s="3"/>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="9">
         <v>35</v>
       </c>
@@ -33292,7 +33427,7 @@
       </c>
       <c r="G273" s="3"/>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="9">
         <v>35</v>
       </c>
@@ -33309,7 +33444,7 @@
       </c>
       <c r="G274" s="3"/>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="9">
         <v>36</v>
       </c>
@@ -33324,7 +33459,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="9">
         <v>37</v>
       </c>
@@ -33345,7 +33480,7 @@
       </c>
       <c r="G276" s="3"/>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="9">
         <v>37</v>
       </c>
@@ -33366,7 +33501,7 @@
       </c>
       <c r="G277" s="3"/>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="9">
         <v>37</v>
       </c>
@@ -33387,7 +33522,7 @@
       </c>
       <c r="G278" s="3"/>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="9">
         <v>37</v>
       </c>
@@ -33408,7 +33543,7 @@
       </c>
       <c r="G279" s="3"/>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="9">
         <v>37</v>
       </c>
@@ -33429,7 +33564,7 @@
       </c>
       <c r="G280" s="3"/>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="9">
         <v>37</v>
       </c>
@@ -33450,7 +33585,7 @@
       </c>
       <c r="G281" s="3"/>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="9">
         <v>37</v>
       </c>
@@ -33471,7 +33606,7 @@
       </c>
       <c r="G282" s="3"/>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="9">
         <v>37</v>
       </c>
@@ -33492,7 +33627,7 @@
       </c>
       <c r="G283" s="3"/>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="9">
         <v>37</v>
       </c>
@@ -33513,7 +33648,7 @@
       </c>
       <c r="G284" s="3"/>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="9">
         <v>37</v>
       </c>
@@ -33534,7 +33669,7 @@
       </c>
       <c r="G285" s="3"/>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="9">
         <v>37</v>
       </c>
@@ -33555,7 +33690,7 @@
       </c>
       <c r="G286" s="3"/>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="9">
         <v>37</v>
       </c>
@@ -33576,7 +33711,7 @@
       </c>
       <c r="G287" s="3"/>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="9">
         <v>37</v>
       </c>
@@ -33597,7 +33732,7 @@
       </c>
       <c r="G288" s="3"/>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="9">
         <v>37</v>
       </c>
@@ -33618,7 +33753,7 @@
       </c>
       <c r="G289" s="3"/>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="9">
         <v>38</v>
       </c>
@@ -33633,7 +33768,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="9">
         <v>39</v>
       </c>
@@ -33648,7 +33783,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="9">
         <v>40</v>
       </c>
@@ -33665,7 +33800,7 @@
       </c>
       <c r="G292" s="3"/>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="9">
         <v>40</v>
       </c>
@@ -33682,7 +33817,7 @@
       </c>
       <c r="G293" s="3"/>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="9">
         <v>40</v>
       </c>
@@ -33703,7 +33838,7 @@
       </c>
       <c r="G294" s="3"/>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="9">
         <v>40</v>
       </c>
@@ -33724,7 +33859,7 @@
       </c>
       <c r="G295" s="3"/>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="9">
         <v>40</v>
       </c>
@@ -33745,7 +33880,7 @@
       </c>
       <c r="G296" s="3"/>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="9">
         <v>40</v>
       </c>
@@ -33766,7 +33901,7 @@
       </c>
       <c r="G297" s="3"/>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="9">
         <v>40</v>
       </c>
@@ -33787,7 +33922,7 @@
       </c>
       <c r="G298" s="3"/>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="9">
         <v>40</v>
       </c>
@@ -33808,7 +33943,7 @@
       </c>
       <c r="G299" s="3"/>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="9">
         <v>40</v>
       </c>
@@ -33829,7 +33964,7 @@
       </c>
       <c r="G300" s="3"/>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="9">
         <v>40</v>
       </c>
@@ -33846,7 +33981,7 @@
       </c>
       <c r="G301" s="3"/>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="9">
         <v>40</v>
       </c>
@@ -33867,7 +34002,7 @@
       </c>
       <c r="G302" s="3"/>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="9">
         <v>40</v>
       </c>
@@ -33888,7 +34023,7 @@
       </c>
       <c r="G303" s="3"/>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="9">
         <v>40</v>
       </c>
@@ -33909,7 +34044,7 @@
       </c>
       <c r="G304" s="3"/>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="9">
         <v>40</v>
       </c>
@@ -33930,7 +34065,7 @@
       </c>
       <c r="G305" s="3"/>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="9">
         <v>40</v>
       </c>
@@ -33951,7 +34086,7 @@
       </c>
       <c r="G306" s="3"/>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="9">
         <v>40</v>
       </c>
@@ -33972,7 +34107,7 @@
       </c>
       <c r="G307" s="3"/>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="9">
         <v>40</v>
       </c>
@@ -33993,7 +34128,7 @@
       </c>
       <c r="G308" s="3"/>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="9">
         <v>40</v>
       </c>
@@ -34010,7 +34145,7 @@
       </c>
       <c r="G309" s="3"/>
     </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="9">
         <v>41</v>
       </c>
@@ -34027,7 +34162,7 @@
       </c>
       <c r="G310" s="3"/>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="9">
         <v>42</v>
       </c>
@@ -34044,7 +34179,7 @@
       </c>
       <c r="G311" s="3"/>
     </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="9">
         <v>42</v>
       </c>
@@ -34061,7 +34196,7 @@
       </c>
       <c r="G312" s="3"/>
     </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="9">
         <v>42</v>
       </c>
@@ -34078,7 +34213,7 @@
       </c>
       <c r="G313" s="3"/>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="9">
         <v>42</v>
       </c>
@@ -34095,7 +34230,7 @@
       </c>
       <c r="G314" s="3"/>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="9">
         <v>42</v>
       </c>
@@ -34112,7 +34247,7 @@
       </c>
       <c r="G315" s="3"/>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="9">
         <v>43</v>
       </c>
@@ -34127,7 +34262,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="9">
         <v>44</v>
       </c>
@@ -34142,7 +34277,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="9">
         <v>45</v>
       </c>
@@ -34163,7 +34298,7 @@
       </c>
       <c r="G318" s="3"/>
     </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="9">
         <v>45</v>
       </c>
@@ -34184,7 +34319,7 @@
       </c>
       <c r="G319" s="3"/>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="9">
         <v>45</v>
       </c>
@@ -34205,7 +34340,7 @@
       </c>
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="9">
         <v>45</v>
       </c>
@@ -34226,7 +34361,7 @@
       </c>
       <c r="G321" s="3"/>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="9">
         <v>45</v>
       </c>
@@ -34247,7 +34382,7 @@
       </c>
       <c r="G322" s="3"/>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="9">
         <v>45</v>
       </c>
@@ -34268,7 +34403,7 @@
       </c>
       <c r="G323" s="3"/>
     </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="9">
         <v>46</v>
       </c>
@@ -34285,7 +34420,7 @@
       </c>
       <c r="G324" s="3"/>
     </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="9">
         <v>47</v>
       </c>
@@ -34302,7 +34437,7 @@
       </c>
       <c r="G325" s="3"/>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="9">
         <v>48</v>
       </c>
@@ -34319,7 +34454,7 @@
       </c>
       <c r="G326" s="3"/>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="9">
         <v>49</v>
       </c>
@@ -34336,7 +34471,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="9">
         <v>50</v>
       </c>
@@ -34353,7 +34488,7 @@
       </c>
       <c r="G328" s="3"/>
     </row>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="9">
         <v>50</v>
       </c>
@@ -34370,7 +34505,7 @@
       </c>
       <c r="G329" s="3"/>
     </row>
-    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="9">
         <v>50</v>
       </c>
@@ -34387,7 +34522,7 @@
       </c>
       <c r="G330" s="3"/>
     </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="9">
         <v>50</v>
       </c>
@@ -34404,7 +34539,7 @@
       </c>
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="9">
         <v>50</v>
       </c>
@@ -34421,7 +34556,7 @@
       </c>
       <c r="G332" s="3"/>
     </row>
-    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="9">
         <v>50</v>
       </c>
@@ -34438,7 +34573,7 @@
       </c>
       <c r="G333" s="3"/>
     </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="9">
         <v>50</v>
       </c>
@@ -34455,7 +34590,7 @@
       </c>
       <c r="G334" s="3"/>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="9">
         <v>50</v>
       </c>
@@ -34472,7 +34607,7 @@
       </c>
       <c r="G335" s="3"/>
     </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="9">
         <v>50</v>
       </c>
@@ -34489,7 +34624,7 @@
       </c>
       <c r="G336" s="3"/>
     </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="9">
         <v>50</v>
       </c>
@@ -34506,7 +34641,7 @@
       </c>
       <c r="G337" s="3"/>
     </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="9">
         <v>51</v>
       </c>
@@ -34523,7 +34658,7 @@
       </c>
       <c r="G338" s="3"/>
     </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="9">
         <v>51</v>
       </c>
@@ -34540,7 +34675,7 @@
       </c>
       <c r="G339" s="3"/>
     </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="9">
         <v>51</v>
       </c>
@@ -34561,7 +34696,7 @@
       </c>
       <c r="G340" s="3"/>
     </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="9">
         <v>51</v>
       </c>
@@ -34582,7 +34717,7 @@
       </c>
       <c r="G341" s="3"/>
     </row>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="9">
         <v>51</v>
       </c>
@@ -34603,7 +34738,7 @@
       </c>
       <c r="G342" s="3"/>
     </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="9">
         <v>51</v>
       </c>
@@ -34624,7 +34759,7 @@
       </c>
       <c r="G343" s="3"/>
     </row>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="9">
         <v>51</v>
       </c>
@@ -34645,7 +34780,7 @@
       </c>
       <c r="G344" s="3"/>
     </row>
-    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="9">
         <v>51</v>
       </c>
@@ -34666,7 +34801,7 @@
       </c>
       <c r="G345" s="3"/>
     </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="9">
         <v>52</v>
       </c>
@@ -34683,7 +34818,7 @@
       </c>
       <c r="G346" s="3"/>
     </row>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="9">
         <v>53</v>
       </c>
@@ -34700,7 +34835,7 @@
       </c>
       <c r="G347" s="3"/>
     </row>
-    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="9">
         <v>53</v>
       </c>
@@ -34717,7 +34852,7 @@
       </c>
       <c r="G348" s="3"/>
     </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="9">
         <v>53</v>
       </c>
@@ -34734,7 +34869,7 @@
       </c>
       <c r="G349" s="3"/>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="9">
         <v>53</v>
       </c>
@@ -34751,7 +34886,7 @@
       </c>
       <c r="G350" s="3"/>
     </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="9">
         <v>53</v>
       </c>
@@ -34768,7 +34903,7 @@
       </c>
       <c r="G351" s="3"/>
     </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="9">
         <v>53</v>
       </c>
@@ -34785,7 +34920,7 @@
       </c>
       <c r="G352" s="3"/>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="9">
         <v>53</v>
       </c>
@@ -34802,7 +34937,7 @@
       </c>
       <c r="G353" s="3"/>
     </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="9">
         <v>53</v>
       </c>
@@ -34819,7 +34954,7 @@
       </c>
       <c r="G354" s="3"/>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="9">
         <v>53</v>
       </c>
@@ -34836,7 +34971,7 @@
       </c>
       <c r="G355" s="3"/>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="9">
         <v>54</v>
       </c>
@@ -34857,7 +34992,7 @@
       </c>
       <c r="G356" s="3"/>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="9">
         <v>54</v>
       </c>
@@ -34878,7 +35013,7 @@
       </c>
       <c r="G357" s="3"/>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="9">
         <v>54</v>
       </c>
@@ -34899,7 +35034,7 @@
       </c>
       <c r="G358" s="3"/>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="9">
         <v>54</v>
       </c>
@@ -34920,7 +35055,7 @@
       </c>
       <c r="G359" s="3"/>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="9">
         <v>54</v>
       </c>
@@ -34941,7 +35076,7 @@
       </c>
       <c r="G360" s="3"/>
     </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="9">
         <v>54</v>
       </c>
@@ -34962,7 +35097,7 @@
       </c>
       <c r="G361" s="3"/>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="9">
         <v>54</v>
       </c>
@@ -34983,7 +35118,7 @@
       </c>
       <c r="G362" s="3"/>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="9">
         <v>54</v>
       </c>
@@ -35004,7 +35139,7 @@
       </c>
       <c r="G363" s="3"/>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="9">
         <v>54</v>
       </c>
@@ -35025,7 +35160,7 @@
       </c>
       <c r="G364" s="3"/>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="9">
         <v>54</v>
       </c>
@@ -35046,7 +35181,7 @@
       </c>
       <c r="G365" s="3"/>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="9">
         <v>54</v>
       </c>
@@ -35067,7 +35202,7 @@
       </c>
       <c r="G366" s="3"/>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="9">
         <v>54</v>
       </c>
@@ -35088,7 +35223,7 @@
       </c>
       <c r="G367" s="3"/>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="9">
         <v>54</v>
       </c>
@@ -35109,7 +35244,7 @@
       </c>
       <c r="G368" s="3"/>
     </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="9">
         <v>54</v>
       </c>
@@ -35130,7 +35265,7 @@
       </c>
       <c r="G369" s="3"/>
     </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="9">
         <v>54</v>
       </c>
@@ -35151,7 +35286,7 @@
       </c>
       <c r="G370" s="3"/>
     </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="9">
         <v>54</v>
       </c>
@@ -35172,7 +35307,7 @@
       </c>
       <c r="G371" s="3"/>
     </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="9">
         <v>55</v>
       </c>
@@ -35187,7 +35322,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="9">
         <v>56</v>
       </c>
@@ -35202,7 +35337,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="9">
         <v>57</v>
       </c>
@@ -35219,7 +35354,7 @@
       </c>
       <c r="G374" s="3"/>
     </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="9">
         <v>57</v>
       </c>
@@ -35236,7 +35371,7 @@
       </c>
       <c r="G375" s="3"/>
     </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="9">
         <v>57</v>
       </c>
@@ -35253,7 +35388,7 @@
       </c>
       <c r="G376" s="3"/>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="9">
         <v>57</v>
       </c>
@@ -35270,7 +35405,7 @@
       </c>
       <c r="G377" s="3"/>
     </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="9">
         <v>57</v>
       </c>
@@ -35287,7 +35422,7 @@
       </c>
       <c r="G378" s="3"/>
     </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="9">
         <v>57</v>
       </c>
@@ -35304,7 +35439,7 @@
       </c>
       <c r="G379" s="3"/>
     </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="9">
         <v>57</v>
       </c>
@@ -35321,7 +35456,7 @@
       </c>
       <c r="G380" s="3"/>
     </row>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="9">
         <v>57</v>
       </c>
@@ -35338,7 +35473,7 @@
       </c>
       <c r="G381" s="3"/>
     </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="9">
         <v>57</v>
       </c>
@@ -35355,7 +35490,7 @@
       </c>
       <c r="G382" s="3"/>
     </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="9">
         <v>57</v>
       </c>
@@ -35372,7 +35507,7 @@
       </c>
       <c r="G383" s="3"/>
     </row>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="9">
         <v>57</v>
       </c>
@@ -35389,7 +35524,7 @@
       </c>
       <c r="G384" s="3"/>
     </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="9">
         <v>57</v>
       </c>
@@ -35406,7 +35541,7 @@
       </c>
       <c r="G385" s="3"/>
     </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="9">
         <v>57</v>
       </c>
@@ -35423,7 +35558,7 @@
       </c>
       <c r="G386" s="3"/>
     </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="9">
         <v>57</v>
       </c>
@@ -35440,7 +35575,7 @@
       </c>
       <c r="G387" s="3"/>
     </row>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="9">
         <v>57</v>
       </c>
@@ -35457,7 +35592,7 @@
       </c>
       <c r="G388" s="3"/>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="9">
         <v>57</v>
       </c>
@@ -35474,7 +35609,7 @@
       </c>
       <c r="G389" s="3"/>
     </row>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="9">
         <v>57</v>
       </c>
@@ -35491,7 +35626,7 @@
       </c>
       <c r="G390" s="3"/>
     </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="9">
         <v>57</v>
       </c>
@@ -35508,7 +35643,7 @@
       </c>
       <c r="G391" s="3"/>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="9">
         <v>57</v>
       </c>
@@ -35525,7 +35660,7 @@
       </c>
       <c r="G392" s="3"/>
     </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="9">
         <v>57</v>
       </c>
@@ -35542,7 +35677,7 @@
       </c>
       <c r="G393" s="3"/>
     </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="9">
         <v>57</v>
       </c>
@@ -35559,7 +35694,7 @@
       </c>
       <c r="G394" s="3"/>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="9">
         <v>57</v>
       </c>
@@ -35576,7 +35711,7 @@
       </c>
       <c r="G395" s="3"/>
     </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="9">
         <v>57</v>
       </c>
@@ -35593,7 +35728,7 @@
       </c>
       <c r="G396" s="3"/>
     </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="9">
         <v>57</v>
       </c>
@@ -35610,7 +35745,7 @@
       </c>
       <c r="G397" s="3"/>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="9">
         <v>57</v>
       </c>
@@ -35627,7 +35762,7 @@
       </c>
       <c r="G398" s="3"/>
     </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="9">
         <v>57</v>
       </c>
@@ -35644,7 +35779,7 @@
       </c>
       <c r="G399" s="3"/>
     </row>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="9">
         <v>57</v>
       </c>
@@ -35661,7 +35796,7 @@
       </c>
       <c r="G400" s="3"/>
     </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="9">
         <v>57</v>
       </c>
@@ -35682,7 +35817,7 @@
       </c>
       <c r="G401" s="3"/>
     </row>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="9">
         <v>57</v>
       </c>
@@ -35703,7 +35838,7 @@
       </c>
       <c r="G402" s="3"/>
     </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="9">
         <v>57</v>
       </c>
@@ -35724,7 +35859,7 @@
       </c>
       <c r="G403" s="3"/>
     </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="9">
         <v>57</v>
       </c>
@@ -35745,7 +35880,7 @@
       </c>
       <c r="G404" s="3"/>
     </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="9">
         <v>57</v>
       </c>
@@ -35766,7 +35901,7 @@
       </c>
       <c r="G405" s="3"/>
     </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="9">
         <v>57</v>
       </c>
@@ -35787,7 +35922,7 @@
       </c>
       <c r="G406" s="3"/>
     </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="9">
         <v>58</v>
       </c>
@@ -35804,7 +35939,7 @@
       </c>
       <c r="G407" s="3"/>
     </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="9">
         <v>58</v>
       </c>
@@ -35821,7 +35956,7 @@
       </c>
       <c r="G408" s="3"/>
     </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="9">
         <v>59</v>
       </c>
@@ -35838,7 +35973,7 @@
       </c>
       <c r="G409" s="3"/>
     </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="9">
         <v>59</v>
       </c>
@@ -35855,7 +35990,7 @@
       </c>
       <c r="G410" s="3"/>
     </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="9">
         <v>59</v>
       </c>
@@ -35872,7 +36007,7 @@
       </c>
       <c r="G411" s="3"/>
     </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="9">
         <v>60</v>
       </c>
@@ -35887,7 +36022,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="9">
         <v>61</v>
       </c>
@@ -35902,7 +36037,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="9">
         <v>62</v>
       </c>
@@ -35917,7 +36052,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="9">
         <v>63</v>
       </c>
@@ -35934,7 +36069,7 @@
       </c>
       <c r="G415" s="3"/>
     </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="9">
         <v>63</v>
       </c>
@@ -35955,7 +36090,7 @@
       </c>
       <c r="G416" s="3"/>
     </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="9">
         <v>63</v>
       </c>
@@ -35976,7 +36111,7 @@
       </c>
       <c r="G417" s="3"/>
     </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="9">
         <v>63</v>
       </c>
@@ -35997,7 +36132,7 @@
       </c>
       <c r="G418" s="3"/>
     </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="9">
         <v>63</v>
       </c>
@@ -36018,7 +36153,7 @@
       </c>
       <c r="G419" s="3"/>
     </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="9">
         <v>63</v>
       </c>
@@ -36039,7 +36174,7 @@
       </c>
       <c r="G420" s="3"/>
     </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="9">
         <v>63</v>
       </c>
@@ -36060,7 +36195,7 @@
       </c>
       <c r="G421" s="3"/>
     </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="9">
         <v>63</v>
       </c>
@@ -36081,7 +36216,7 @@
       </c>
       <c r="G422" s="3"/>
     </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="9">
         <v>63</v>
       </c>
@@ -36102,7 +36237,7 @@
       </c>
       <c r="G423" s="3"/>
     </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="9">
         <v>63</v>
       </c>
@@ -36123,7 +36258,7 @@
       </c>
       <c r="G424" s="3"/>
     </row>
-    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="9">
         <v>63</v>
       </c>
@@ -36144,7 +36279,7 @@
       </c>
       <c r="G425" s="3"/>
     </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="9">
         <v>63</v>
       </c>
@@ -36165,7 +36300,7 @@
       </c>
       <c r="G426" s="3"/>
     </row>
-    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="9">
         <v>63</v>
       </c>
@@ -36186,7 +36321,7 @@
       </c>
       <c r="G427" s="3"/>
     </row>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="9">
         <v>63</v>
       </c>
@@ -36207,7 +36342,7 @@
       </c>
       <c r="G428" s="3"/>
     </row>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="9">
         <v>63</v>
       </c>
@@ -36228,7 +36363,7 @@
       </c>
       <c r="G429" s="3"/>
     </row>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="9">
         <v>64</v>
       </c>
@@ -36243,7 +36378,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="9">
         <v>65</v>
       </c>
@@ -36260,7 +36395,7 @@
       </c>
       <c r="G431" s="3"/>
     </row>
-    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="9">
         <v>65</v>
       </c>
@@ -36277,7 +36412,7 @@
       </c>
       <c r="G432" s="3"/>
     </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="9">
         <v>65</v>
       </c>
@@ -36294,7 +36429,7 @@
       </c>
       <c r="G433" s="3"/>
     </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="9">
         <v>65</v>
       </c>
@@ -36311,7 +36446,7 @@
       </c>
       <c r="G434" s="3"/>
     </row>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="9">
         <v>65</v>
       </c>
@@ -36328,7 +36463,7 @@
       </c>
       <c r="G435" s="3"/>
     </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="9">
         <v>65</v>
       </c>
@@ -36345,7 +36480,7 @@
       </c>
       <c r="G436" s="3"/>
     </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="9">
         <v>65</v>
       </c>
@@ -36362,7 +36497,7 @@
       </c>
       <c r="G437" s="3"/>
     </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="9">
         <v>65</v>
       </c>
@@ -36379,7 +36514,7 @@
       </c>
       <c r="G438" s="3"/>
     </row>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="9">
         <v>65</v>
       </c>
@@ -36396,7 +36531,7 @@
       </c>
       <c r="G439" s="3"/>
     </row>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="9">
         <v>65</v>
       </c>
@@ -36413,7 +36548,7 @@
       </c>
       <c r="G440" s="3"/>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="9">
         <v>65</v>
       </c>
@@ -36430,7 +36565,7 @@
       </c>
       <c r="G441" s="3"/>
     </row>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="9">
         <v>65</v>
       </c>
@@ -36447,7 +36582,7 @@
       </c>
       <c r="G442" s="3"/>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="9">
         <v>65</v>
       </c>
@@ -36464,7 +36599,7 @@
       </c>
       <c r="G443" s="3"/>
     </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="9">
         <v>66</v>
       </c>
@@ -36479,7 +36614,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="9">
         <v>67</v>
       </c>
@@ -36496,7 +36631,7 @@
       </c>
       <c r="G445" s="3"/>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="9">
         <v>67</v>
       </c>
@@ -36517,7 +36652,7 @@
       </c>
       <c r="G446" s="3"/>
     </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="9">
         <v>67</v>
       </c>
@@ -36538,7 +36673,7 @@
       </c>
       <c r="G447" s="3"/>
     </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="9">
         <v>67</v>
       </c>
@@ -36559,7 +36694,7 @@
       </c>
       <c r="G448" s="3"/>
     </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="9">
         <v>67</v>
       </c>
@@ -36580,7 +36715,7 @@
       </c>
       <c r="G449" s="3"/>
     </row>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="9">
         <v>67</v>
       </c>
@@ -36601,7 +36736,7 @@
       </c>
       <c r="G450" s="3"/>
     </row>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="9">
         <v>67</v>
       </c>
@@ -36622,7 +36757,7 @@
       </c>
       <c r="G451" s="3"/>
     </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="9">
         <v>68</v>
       </c>
@@ -36637,7 +36772,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="9">
         <v>69</v>
       </c>
@@ -36654,7 +36789,7 @@
       </c>
       <c r="G453" s="3"/>
     </row>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="9">
         <v>69</v>
       </c>
@@ -36671,7 +36806,7 @@
       </c>
       <c r="G454" s="3"/>
     </row>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="9">
         <v>69</v>
       </c>
@@ -36688,7 +36823,7 @@
       </c>
       <c r="G455" s="3"/>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="9">
         <v>69</v>
       </c>
@@ -36705,7 +36840,7 @@
       </c>
       <c r="G456" s="3"/>
     </row>
-    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="9">
         <v>70</v>
       </c>
@@ -36726,7 +36861,7 @@
       </c>
       <c r="G457" s="3"/>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="9">
         <v>70</v>
       </c>
@@ -36747,7 +36882,7 @@
       </c>
       <c r="G458" s="3"/>
     </row>
-    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="9">
         <v>70</v>
       </c>
@@ -36768,7 +36903,7 @@
       </c>
       <c r="G459" s="3"/>
     </row>
-    <row r="460" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="9">
         <v>70</v>
       </c>
@@ -36789,7 +36924,7 @@
       </c>
       <c r="G460" s="3"/>
     </row>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="9">
         <v>70</v>
       </c>
@@ -36810,7 +36945,7 @@
       </c>
       <c r="G461" s="3"/>
     </row>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="9">
         <v>70</v>
       </c>
@@ -36831,7 +36966,7 @@
       </c>
       <c r="G462" s="3"/>
     </row>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="9">
         <v>70</v>
       </c>
@@ -36852,7 +36987,7 @@
       </c>
       <c r="G463" s="3"/>
     </row>
-    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="9">
         <v>70</v>
       </c>
@@ -36873,7 +37008,7 @@
       </c>
       <c r="G464" s="3"/>
     </row>
-    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="9">
         <v>70</v>
       </c>
@@ -36890,7 +37025,7 @@
       </c>
       <c r="G465" s="3"/>
     </row>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="9">
         <v>70</v>
       </c>
@@ -36907,7 +37042,7 @@
       </c>
       <c r="G466" s="3"/>
     </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="9">
         <v>70</v>
       </c>
@@ -36924,7 +37059,7 @@
       </c>
       <c r="G467" s="3"/>
     </row>
-    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="9">
         <v>70</v>
       </c>
@@ -36941,7 +37076,7 @@
       </c>
       <c r="G468" s="3"/>
     </row>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="9">
         <v>70</v>
       </c>
@@ -36958,7 +37093,7 @@
       </c>
       <c r="G469" s="3"/>
     </row>
-    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="9">
         <v>70</v>
       </c>
@@ -36975,7 +37110,7 @@
       </c>
       <c r="G470" s="3"/>
     </row>
-    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="9">
         <v>70</v>
       </c>
@@ -36992,7 +37127,7 @@
       </c>
       <c r="G471" s="3"/>
     </row>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="9">
         <v>70</v>
       </c>
@@ -37009,7 +37144,7 @@
       </c>
       <c r="G472" s="3"/>
     </row>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="9">
         <v>71</v>
       </c>
@@ -37026,7 +37161,7 @@
       </c>
       <c r="G473" s="3"/>
     </row>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="9">
         <v>71</v>
       </c>
@@ -37043,7 +37178,7 @@
       </c>
       <c r="G474" s="3"/>
     </row>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="9">
         <v>71</v>
       </c>
@@ -37060,7 +37195,7 @@
       </c>
       <c r="G475" s="3"/>
     </row>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="9">
         <v>72</v>
       </c>
@@ -37075,7 +37210,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="9">
         <v>73</v>
       </c>
@@ -37090,7 +37225,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="9">
         <v>74</v>
       </c>
@@ -37111,7 +37246,7 @@
       </c>
       <c r="G478" s="3"/>
     </row>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="9">
         <v>74</v>
       </c>
@@ -37132,7 +37267,7 @@
       </c>
       <c r="G479" s="3"/>
     </row>
-    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="9">
         <v>74</v>
       </c>
@@ -37153,7 +37288,7 @@
       </c>
       <c r="G480" s="3"/>
     </row>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="9">
         <v>74</v>
       </c>
@@ -37174,7 +37309,7 @@
       </c>
       <c r="G481" s="3"/>
     </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="9">
         <v>74</v>
       </c>
@@ -37195,7 +37330,7 @@
       </c>
       <c r="G482" s="3"/>
     </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="9">
         <v>74</v>
       </c>
@@ -37216,7 +37351,7 @@
       </c>
       <c r="G483" s="3"/>
     </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="9">
         <v>74</v>
       </c>
@@ -37237,7 +37372,7 @@
       </c>
       <c r="G484" s="3"/>
     </row>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="9">
         <v>75</v>
       </c>
@@ -37258,7 +37393,7 @@
       </c>
       <c r="G485" s="3"/>
     </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="9">
         <v>75</v>
       </c>
@@ -37279,7 +37414,7 @@
       </c>
       <c r="G486" s="3"/>
     </row>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="9">
         <v>75</v>
       </c>
@@ -37300,7 +37435,7 @@
       </c>
       <c r="G487" s="3"/>
     </row>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="9">
         <v>75</v>
       </c>
@@ -37317,7 +37452,7 @@
       </c>
       <c r="G488" s="3"/>
     </row>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="9">
         <v>76</v>
       </c>
@@ -37332,7 +37467,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="9">
         <v>77</v>
       </c>
@@ -37353,7 +37488,7 @@
       </c>
       <c r="G490" s="3"/>
     </row>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="9">
         <v>77</v>
       </c>
@@ -37374,7 +37509,7 @@
       </c>
       <c r="G491" s="3"/>
     </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="9">
         <v>77</v>
       </c>
@@ -37395,7 +37530,7 @@
       </c>
       <c r="G492" s="3"/>
     </row>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="9">
         <v>77</v>
       </c>
@@ -37416,7 +37551,7 @@
       </c>
       <c r="G493" s="3"/>
     </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="9">
         <v>77</v>
       </c>
@@ -37437,7 +37572,7 @@
       </c>
       <c r="G494" s="3"/>
     </row>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="9">
         <v>77</v>
       </c>
@@ -37458,7 +37593,7 @@
       </c>
       <c r="G495" s="3"/>
     </row>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="9">
         <v>77</v>
       </c>
@@ -37479,7 +37614,7 @@
       </c>
       <c r="G496" s="3"/>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="26">
         <v>78</v>
       </c>
@@ -37496,7 +37631,7 @@
       </c>
       <c r="G497" s="3"/>
     </row>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="26">
         <v>78</v>
       </c>
@@ -37513,7 +37648,7 @@
       </c>
       <c r="G498" s="3"/>
     </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="26">
         <v>78</v>
       </c>
@@ -37530,7 +37665,7 @@
       </c>
       <c r="G499" s="3"/>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="26">
         <v>78</v>
       </c>
@@ -37547,7 +37682,7 @@
       </c>
       <c r="G500" s="3"/>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="9">
         <v>79</v>
       </c>
@@ -37564,7 +37699,7 @@
       </c>
       <c r="G501" s="3"/>
     </row>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="9">
         <v>79</v>
       </c>
@@ -37581,7 +37716,7 @@
       </c>
       <c r="G502" s="3"/>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="9">
         <v>79</v>
       </c>
@@ -37598,7 +37733,7 @@
       </c>
       <c r="G503" s="3"/>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="9">
         <v>79</v>
       </c>
@@ -37615,7 +37750,7 @@
       </c>
       <c r="G504" s="3"/>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="9">
         <v>79</v>
       </c>
@@ -37632,7 +37767,7 @@
       </c>
       <c r="G505" s="3"/>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="9">
         <v>79</v>
       </c>
@@ -37649,7 +37784,7 @@
       </c>
       <c r="G506" s="3"/>
     </row>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="9">
         <v>79</v>
       </c>
@@ -37666,7 +37801,7 @@
       </c>
       <c r="G507" s="3"/>
     </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="9">
         <v>79</v>
       </c>
@@ -37683,7 +37818,7 @@
       </c>
       <c r="G508" s="3"/>
     </row>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="9">
         <v>79</v>
       </c>
@@ -37700,7 +37835,7 @@
       </c>
       <c r="G509" s="3"/>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="9">
         <v>79</v>
       </c>
@@ -37717,7 +37852,7 @@
       </c>
       <c r="G510" s="3"/>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="9">
         <v>79</v>
       </c>
@@ -37734,7 +37869,7 @@
       </c>
       <c r="G511" s="3"/>
     </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="9">
         <v>79</v>
       </c>
@@ -37751,7 +37886,7 @@
       </c>
       <c r="G512" s="3"/>
     </row>
-    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" s="9">
         <v>79</v>
       </c>
@@ -37772,7 +37907,7 @@
       </c>
       <c r="G513" s="3"/>
     </row>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" s="9">
         <v>79</v>
       </c>
@@ -37793,7 +37928,7 @@
       </c>
       <c r="G514" s="3"/>
     </row>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="9">
         <v>79</v>
       </c>
@@ -37814,7 +37949,7 @@
       </c>
       <c r="G515" s="3"/>
     </row>
-    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" s="9">
         <v>79</v>
       </c>
@@ -37835,7 +37970,7 @@
       </c>
       <c r="G516" s="3"/>
     </row>
-    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="9">
         <v>79</v>
       </c>
@@ -37856,7 +37991,7 @@
       </c>
       <c r="G517" s="3"/>
     </row>
-    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="9">
         <v>79</v>
       </c>
@@ -37877,7 +38012,7 @@
       </c>
       <c r="G518" s="3"/>
     </row>
-    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" s="9">
         <v>80</v>
       </c>
@@ -37894,7 +38029,7 @@
       </c>
       <c r="G519" s="3"/>
     </row>
-    <row r="520" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="9">
         <v>81</v>
       </c>
@@ -37911,7 +38046,7 @@
       </c>
       <c r="G520" s="3"/>
     </row>
-    <row r="521" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="9">
         <v>81</v>
       </c>
@@ -37928,7 +38063,7 @@
       </c>
       <c r="G521" s="3"/>
     </row>
-    <row r="522" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="9">
         <v>81</v>
       </c>
@@ -37945,7 +38080,7 @@
       </c>
       <c r="G522" s="3"/>
     </row>
-    <row r="523" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="9">
         <v>81</v>
       </c>
@@ -37962,7 +38097,7 @@
       </c>
       <c r="G523" s="3"/>
     </row>
-    <row r="524" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="9">
         <v>81</v>
       </c>
@@ -37979,7 +38114,7 @@
       </c>
       <c r="G524" s="3"/>
     </row>
-    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" s="9">
         <v>82</v>
       </c>
@@ -37994,7 +38129,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" s="9">
         <v>83</v>
       </c>
@@ -38009,7 +38144,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" s="9">
         <v>84</v>
       </c>
@@ -38024,7 +38159,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" s="9">
         <v>85</v>
       </c>
@@ -38041,7 +38176,7 @@
       </c>
       <c r="G528" s="3"/>
     </row>
-    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" s="9">
         <v>86</v>
       </c>
@@ -38058,7 +38193,7 @@
       </c>
       <c r="G529" s="3"/>
     </row>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" s="9">
         <v>87</v>
       </c>
@@ -38075,7 +38210,7 @@
       </c>
       <c r="G530" s="3"/>
     </row>
-    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" s="9">
         <v>87</v>
       </c>
@@ -38092,7 +38227,7 @@
       </c>
       <c r="G531" s="3"/>
     </row>
-    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" s="9">
         <v>88</v>
       </c>
@@ -38107,7 +38242,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" s="9">
         <v>89</v>
       </c>
@@ -38124,7 +38259,7 @@
       </c>
       <c r="G533" s="3"/>
     </row>
-    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" s="9">
         <v>90</v>
       </c>
@@ -38141,7 +38276,7 @@
       </c>
       <c r="G534" s="3"/>
     </row>
-    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" s="9">
         <v>90</v>
       </c>
@@ -38158,7 +38293,7 @@
       </c>
       <c r="G535" s="3"/>
     </row>
-    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" s="9">
         <v>90</v>
       </c>
@@ -38179,7 +38314,7 @@
       </c>
       <c r="G536" s="3"/>
     </row>
-    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" s="9">
         <v>90</v>
       </c>
@@ -38196,7 +38331,7 @@
       </c>
       <c r="G537" s="3"/>
     </row>
-    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" s="9">
         <v>91</v>
       </c>
@@ -38211,7 +38346,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539" s="9">
         <v>92</v>
       </c>
@@ -38226,7 +38361,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" s="9">
         <v>93</v>
       </c>
@@ -38247,7 +38382,7 @@
       </c>
       <c r="G540" s="3"/>
     </row>
-    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" s="9">
         <v>93</v>
       </c>
@@ -38268,7 +38403,7 @@
       </c>
       <c r="G541" s="3"/>
     </row>
-    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" s="9">
         <v>93</v>
       </c>
@@ -38289,7 +38424,7 @@
       </c>
       <c r="G542" s="3"/>
     </row>
-    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" s="9">
         <v>93</v>
       </c>
@@ -38310,7 +38445,7 @@
       </c>
       <c r="G543" s="3"/>
     </row>
-    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544" s="9">
         <v>93</v>
       </c>
@@ -38331,7 +38466,7 @@
       </c>
       <c r="G544" s="3"/>
     </row>
-    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" s="9">
         <v>93</v>
       </c>
@@ -38352,7 +38487,7 @@
       </c>
       <c r="G545" s="3"/>
     </row>
-    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" s="9">
         <v>93</v>
       </c>
@@ -38373,7 +38508,7 @@
       </c>
       <c r="G546" s="3"/>
     </row>
-    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" s="9">
         <v>94</v>
       </c>
@@ -38388,7 +38523,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" s="9">
         <v>95</v>
       </c>
@@ -38403,7 +38538,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" s="9">
         <v>96</v>
       </c>
@@ -38420,7 +38555,7 @@
       </c>
       <c r="G549" s="3"/>
     </row>
-    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" s="9">
         <v>96</v>
       </c>
@@ -38437,7 +38572,7 @@
       </c>
       <c r="G550" s="3"/>
     </row>
-    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551" s="9">
         <v>97</v>
       </c>
@@ -38458,7 +38593,7 @@
       </c>
       <c r="G551" s="3"/>
     </row>
-    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552" s="9">
         <v>97</v>
       </c>
@@ -38479,7 +38614,7 @@
       </c>
       <c r="G552" s="3"/>
     </row>
-    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553" s="9">
         <v>97</v>
       </c>
@@ -38500,7 +38635,7 @@
       </c>
       <c r="G553" s="3"/>
     </row>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554" s="9">
         <v>97</v>
       </c>
@@ -38521,7 +38656,7 @@
       </c>
       <c r="G554" s="3"/>
     </row>
-    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555" s="9">
         <v>97</v>
       </c>
@@ -38542,7 +38677,7 @@
       </c>
       <c r="G555" s="3"/>
     </row>
-    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556" s="9">
         <v>97</v>
       </c>
@@ -38563,7 +38698,7 @@
       </c>
       <c r="G556" s="3"/>
     </row>
-    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" s="9">
         <v>97</v>
       </c>
@@ -38585,13 +38720,7 @@
       <c r="G557" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G557">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="00697-2024-OEFA/DFAI-SSAG"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G557"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
